--- a/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
+++ b/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
@@ -903,7 +903,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -988,10 +988,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1017,10 +1013,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1261,8 +1253,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1390,14 +1382,14 @@
   </sheetPr>
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F76" activeCellId="0" sqref="F76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
@@ -1407,13 +1399,13 @@
       <c r="A1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="b">
@@ -1429,7 +1421,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -1451,7 +1443,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -1473,7 +1465,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>112</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -1495,7 +1487,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -1517,7 +1509,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -1539,7 +1531,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -1561,7 +1553,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1583,7 +1575,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -1605,7 +1597,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -1627,7 +1619,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -1649,7 +1641,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1671,7 +1663,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -1693,7 +1685,7 @@
       <c r="A14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="20" t="n">
@@ -1715,7 +1707,7 @@
       <c r="A15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="20" t="n">
@@ -1737,7 +1729,7 @@
       <c r="A16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C16" s="20" t="n">
@@ -1759,7 +1751,7 @@
       <c r="A17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>113</v>
       </c>
       <c r="C17" s="20" t="n">
@@ -1781,7 +1773,7 @@
       <c r="A18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>114</v>
       </c>
       <c r="C18" s="20" t="n">
@@ -1803,7 +1795,7 @@
       <c r="A19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="20" t="n">
@@ -1825,7 +1817,7 @@
       <c r="A20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="20" t="n">
@@ -1847,7 +1839,7 @@
       <c r="A21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="20" t="n">
@@ -1869,7 +1861,7 @@
       <c r="A22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="20" t="n">
@@ -1891,7 +1883,7 @@
       <c r="A23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>119</v>
       </c>
       <c r="C23" s="20" t="n">
@@ -1913,7 +1905,7 @@
       <c r="A24" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="36" t="s">
         <v>120</v>
       </c>
       <c r="C24" s="20" t="n">
@@ -1935,7 +1927,7 @@
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C25" s="20" t="n">
@@ -1957,7 +1949,7 @@
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="1" t="n">
@@ -1979,7 +1971,7 @@
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="1" t="n">
@@ -2001,7 +1993,7 @@
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="32" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="1" t="n">
@@ -2023,7 +2015,7 @@
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C29" s="1" t="n">
@@ -2045,7 +2037,7 @@
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C30" s="1" t="n">
@@ -2067,7 +2059,7 @@
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="32" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="1" t="n">
@@ -2089,7 +2081,7 @@
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="1" t="n">
@@ -2111,7 +2103,7 @@
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C33" s="1" t="n">
@@ -2133,7 +2125,7 @@
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C34" s="1" t="n">
@@ -2155,7 +2147,7 @@
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="1" t="n">
@@ -2177,7 +2169,7 @@
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="32" t="s">
         <v>120</v>
       </c>
       <c r="C36" s="1" t="n">
@@ -2199,7 +2191,7 @@
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C37" s="1" t="n">
@@ -2221,7 +2213,7 @@
       <c r="A38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="35" t="s">
         <v>110</v>
       </c>
       <c r="C38" s="20" t="n">
@@ -2243,7 +2235,7 @@
       <c r="A39" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="35" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="20" t="n">
@@ -2265,7 +2257,7 @@
       <c r="A40" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="20" t="n">
@@ -2287,7 +2279,7 @@
       <c r="A41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="36" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="20" t="n">
@@ -2309,7 +2301,7 @@
       <c r="A42" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="36" t="s">
         <v>114</v>
       </c>
       <c r="C42" s="20" t="n">
@@ -2331,7 +2323,7 @@
       <c r="A43" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C43" s="20" t="n">
@@ -2353,7 +2345,7 @@
       <c r="A44" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C44" s="20" t="n">
@@ -2375,7 +2367,7 @@
       <c r="A45" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C45" s="20" t="n">
@@ -2397,7 +2389,7 @@
       <c r="A46" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C46" s="20" t="n">
@@ -2419,7 +2411,7 @@
       <c r="A47" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="36" t="s">
         <v>119</v>
       </c>
       <c r="C47" s="20" t="n">
@@ -2441,7 +2433,7 @@
       <c r="A48" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="36" t="s">
         <v>120</v>
       </c>
       <c r="C48" s="20" t="n">
@@ -2463,7 +2455,7 @@
       <c r="A49" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C49" s="20" t="n">
@@ -2485,7 +2477,7 @@
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="1" t="n">
@@ -2507,7 +2499,7 @@
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="30" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="1" t="n">
@@ -2529,7 +2521,7 @@
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="32" t="s">
         <v>112</v>
       </c>
       <c r="C52" s="1" t="n">
@@ -2551,7 +2543,7 @@
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="1" t="n">
@@ -2573,7 +2565,7 @@
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C54" s="1" t="n">
@@ -2595,7 +2587,7 @@
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="32" t="s">
         <v>115</v>
       </c>
       <c r="C55" s="1" t="n">
@@ -2617,7 +2609,7 @@
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C56" s="1" t="n">
@@ -2639,7 +2631,7 @@
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C57" s="1" t="n">
@@ -2661,7 +2653,7 @@
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="1" t="n">
@@ -2683,7 +2675,7 @@
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C59" s="1" t="n">
@@ -2705,7 +2697,7 @@
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="32" t="s">
         <v>120</v>
       </c>
       <c r="C60" s="1" t="n">
@@ -2727,7 +2719,7 @@
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C61" s="1" t="n">
@@ -2749,7 +2741,7 @@
       <c r="A62" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="35" t="s">
         <v>110</v>
       </c>
       <c r="C62" s="20" t="n">
@@ -2771,7 +2763,7 @@
       <c r="A63" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="35" t="s">
         <v>111</v>
       </c>
       <c r="C63" s="20" t="n">
@@ -2793,7 +2785,7 @@
       <c r="A64" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C64" s="20" t="n">
@@ -2815,7 +2807,7 @@
       <c r="A65" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="36" t="s">
         <v>113</v>
       </c>
       <c r="C65" s="20" t="n">
@@ -2837,7 +2829,7 @@
       <c r="A66" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="36" t="s">
         <v>114</v>
       </c>
       <c r="C66" s="20" t="n">
@@ -2859,7 +2851,7 @@
       <c r="A67" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C67" s="20" t="n">
@@ -2881,7 +2873,7 @@
       <c r="A68" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C68" s="20" t="n">
@@ -2903,7 +2895,7 @@
       <c r="A69" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C69" s="20" t="n">
@@ -2925,7 +2917,7 @@
       <c r="A70" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C70" s="20" t="n">
@@ -2947,7 +2939,7 @@
       <c r="A71" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="36" t="s">
         <v>119</v>
       </c>
       <c r="C71" s="20" t="n">
@@ -2969,7 +2961,7 @@
       <c r="A72" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="36" t="s">
         <v>120</v>
       </c>
       <c r="C72" s="20" t="n">
@@ -2991,7 +2983,7 @@
       <c r="A73" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C73" s="20" t="n">
@@ -3013,7 +3005,7 @@
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C74" s="1" t="n">
@@ -3035,7 +3027,7 @@
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="30" t="s">
         <v>111</v>
       </c>
       <c r="C75" s="1" t="n">
@@ -3057,7 +3049,7 @@
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="32" t="s">
         <v>112</v>
       </c>
       <c r="C76" s="1" t="n">
@@ -3079,7 +3071,7 @@
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C77" s="1" t="n">
@@ -3101,7 +3093,7 @@
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C78" s="1" t="n">
@@ -3123,7 +3115,7 @@
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="32" t="s">
         <v>115</v>
       </c>
       <c r="C79" s="1" t="n">
@@ -3145,7 +3137,7 @@
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C80" s="1" t="n">
@@ -3167,7 +3159,7 @@
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="1" t="n">
@@ -3189,7 +3181,7 @@
       <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C82" s="1" t="n">
@@ -3211,7 +3203,7 @@
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C83" s="1" t="n">
@@ -3233,7 +3225,7 @@
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="32" t="s">
         <v>120</v>
       </c>
       <c r="C84" s="1" t="n">
@@ -3255,7 +3247,7 @@
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C85" s="1" t="n">
@@ -3274,482 +3266,482 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="32"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="32"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="34"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="34"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="34"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="34"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="34"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="34"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="34"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="34"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="34"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="34"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="32"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="32"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="34"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="34"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="34"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="34"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="34"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="34"/>
+      <c r="B105" s="32"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="34"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="34"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="34"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="34"/>
+      <c r="B109" s="32"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="32"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="32"/>
+      <c r="B111" s="30"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="34"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="34"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="34"/>
+      <c r="B114" s="32"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="34"/>
+      <c r="B115" s="32"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="34"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="34"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="34"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="34"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="34"/>
+      <c r="B120" s="32"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="34"/>
+      <c r="B121" s="32"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="32"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="32"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="34"/>
+      <c r="B124" s="32"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="34"/>
+      <c r="B125" s="32"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="34"/>
+      <c r="B126" s="32"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="34"/>
+      <c r="B127" s="32"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="34"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="34"/>
+      <c r="B129" s="32"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="34"/>
+      <c r="B130" s="32"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="34"/>
+      <c r="B131" s="32"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="34"/>
+      <c r="B132" s="32"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="34"/>
+      <c r="B133" s="32"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="32"/>
+      <c r="B134" s="30"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="32"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="34"/>
+      <c r="B136" s="32"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="34"/>
+      <c r="B137" s="32"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="34"/>
+      <c r="B138" s="32"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="34"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="34"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="34"/>
+      <c r="B141" s="32"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="34"/>
+      <c r="B142" s="32"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="34"/>
+      <c r="B143" s="32"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="34"/>
+      <c r="B144" s="32"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="34"/>
+      <c r="B145" s="32"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="32"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="32"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="34"/>
+      <c r="B148" s="32"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="34"/>
+      <c r="B149" s="32"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="34"/>
+      <c r="B150" s="32"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="34"/>
+      <c r="B151" s="32"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="34"/>
+      <c r="B152" s="32"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="34"/>
+      <c r="B153" s="32"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="34"/>
+      <c r="B154" s="32"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="34"/>
+      <c r="B155" s="32"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="34"/>
+      <c r="B156" s="32"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="34"/>
+      <c r="B157" s="32"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="32"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="32"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="34"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="34"/>
+      <c r="B161" s="32"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="34"/>
+      <c r="B162" s="32"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="34"/>
+      <c r="B163" s="32"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="34"/>
+      <c r="B164" s="32"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="34"/>
+      <c r="B165" s="32"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="34"/>
+      <c r="B166" s="32"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="34"/>
+      <c r="B167" s="32"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="34"/>
+      <c r="B168" s="32"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="34"/>
+      <c r="B169" s="32"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="32"/>
+      <c r="B170" s="30"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="32"/>
+      <c r="B171" s="30"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="34"/>
+      <c r="B172" s="32"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="34"/>
+      <c r="B173" s="32"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="34"/>
+      <c r="B174" s="32"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="34"/>
+      <c r="B175" s="32"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="34"/>
+      <c r="B176" s="32"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="34"/>
+      <c r="B177" s="32"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="34"/>
+      <c r="B178" s="32"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="34"/>
+      <c r="B179" s="32"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="34"/>
+      <c r="B180" s="32"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="34"/>
+      <c r="B181" s="32"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
@@ -3772,7 +3764,7 @@
   </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -3963,7 +3955,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3986,7 +3978,7 @@
       <c r="C1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4000,7 +3992,7 @@
       <c r="C2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="40" t="n">
+      <c r="D2" s="38" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C600))</f>
         <v>46391</v>
       </c>
@@ -4023,7 +4015,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4035,7 +4027,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>125</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -4062,10 +4054,10 @@
       <c r="I1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="37" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4083,7 +4075,7 @@
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="28" t="n">
+      <c r="F2" s="27" t="n">
         <f aca="false">misc!D2</f>
         <v>46391</v>
       </c>
@@ -4096,11 +4088,11 @@
       <c r="I2" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="42" t="b">
+      <c r="J2" s="40" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="42" t="b">
+      <c r="K2" s="40" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -4123,7 +4115,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4134,7 +4126,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>139</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -4161,10 +4153,10 @@
       <c r="I1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="37" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4182,7 +4174,7 @@
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="28" t="n">
+      <c r="F2" s="27" t="n">
         <f aca="false">misc!D2</f>
         <v>46391</v>
       </c>
@@ -4195,11 +4187,11 @@
       <c r="I2" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="42" t="b">
+      <c r="J2" s="40" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="42" t="b">
+      <c r="K2" s="40" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -4222,7 +4214,7 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4233,7 +4225,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -4254,10 +4246,10 @@
       <c r="G1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4275,18 +4267,18 @@
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="28" t="n">
+      <c r="F2" s="27" t="n">
         <f aca="false">misc!D2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="H2" s="42" t="b">
+      <c r="H2" s="40" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="42" t="b">
+      <c r="I2" s="40" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -4312,7 +4304,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -4323,7 +4315,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>143</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -4383,7 +4375,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4394,7 +4386,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>148</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -4454,7 +4446,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -4467,7 +4459,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>153</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -4545,8 +4537,8 @@
   </sheetPr>
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8724,8 +8716,8 @@
   </sheetPr>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9220,7 +9212,7 @@
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="19" t="n">
@@ -9236,7 +9228,7 @@
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="19" t="n">
@@ -9252,7 +9244,7 @@
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C33" s="19" t="n">
@@ -9268,7 +9260,7 @@
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="19" t="n">
@@ -9284,7 +9276,7 @@
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="19" t="n">
@@ -9300,7 +9292,7 @@
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="19" t="n">
@@ -9316,7 +9308,7 @@
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="19" t="n">
@@ -9332,7 +9324,7 @@
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="19" t="n">
@@ -9348,7 +9340,7 @@
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="19" t="n">
@@ -9364,7 +9356,7 @@
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C40" s="19" t="n">
@@ -9380,7 +9372,7 @@
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="19" t="n">
@@ -9396,7 +9388,7 @@
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19" t="n">
@@ -9412,7 +9404,7 @@
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="19" t="n">
@@ -9428,7 +9420,7 @@
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C44" s="19" t="n">
@@ -9444,7 +9436,7 @@
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="19" t="n">
@@ -10195,8 +10187,8 @@
   </sheetPr>
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F94" activeCellId="0" sqref="F94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10204,7 +10196,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.36"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="22" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="21" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
@@ -10223,10 +10215,10 @@
       <c r="D1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="b">
@@ -10255,10 +10247,10 @@
       <c r="D2" s="6" t="n">
         <v>45738</v>
       </c>
-      <c r="E2" s="24" t="n">
+      <c r="E2" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="24" t="n">
+      <c r="F2" s="23" t="n">
         <v>0.5</v>
       </c>
       <c r="G2" s="2" t="b">
@@ -10287,10 +10279,10 @@
       <c r="D3" s="6" t="n">
         <v>45747</v>
       </c>
-      <c r="E3" s="24" t="n">
+      <c r="E3" s="23" t="n">
         <v>1.5</v>
       </c>
-      <c r="F3" s="24" t="n">
+      <c r="F3" s="23" t="n">
         <v>1.75</v>
       </c>
       <c r="G3" s="2" t="b">
@@ -10319,10 +10311,10 @@
       <c r="D4" s="6" t="n">
         <v>45704</v>
       </c>
-      <c r="E4" s="24" t="n">
+      <c r="E4" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="F4" s="24" t="n">
+      <c r="F4" s="23" t="n">
         <v>6.25</v>
       </c>
       <c r="G4" s="2" t="b">
@@ -10351,10 +10343,10 @@
       <c r="D5" s="6" t="n">
         <v>45915</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="F5" s="24" t="n">
+      <c r="F5" s="23" t="n">
         <v>0.5</v>
       </c>
       <c r="G5" s="2" t="b">
@@ -10383,10 +10375,10 @@
       <c r="D6" s="6" t="n">
         <v>45931</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="23" t="n">
         <v>1.5</v>
       </c>
-      <c r="F6" s="24" t="n">
+      <c r="F6" s="23" t="n">
         <v>1.75</v>
       </c>
       <c r="G6" s="2" t="b">
@@ -10415,10 +10407,10 @@
       <c r="D7" s="6" t="n">
         <v>45718</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="24" t="n">
+      <c r="F7" s="23" t="n">
         <v>2.25</v>
       </c>
       <c r="G7" s="2" t="b">
@@ -10447,10 +10439,10 @@
       <c r="D8" s="6" t="n">
         <v>45889</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="24" t="n">
+      <c r="F8" s="23" t="n">
         <v>0.25</v>
       </c>
       <c r="G8" s="2" t="b">
@@ -10479,10 +10471,10 @@
       <c r="D9" s="6" t="n">
         <v>45901</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="23" t="n">
         <v>1.25</v>
       </c>
-      <c r="F9" s="24" t="n">
+      <c r="F9" s="23" t="n">
         <v>1.5</v>
       </c>
       <c r="G9" s="2" t="b">
@@ -10505,16 +10497,16 @@
       <c r="B10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="24" t="n">
         <v>45658</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="24" t="n">
         <v>45748</v>
       </c>
-      <c r="E10" s="26" t="n">
+      <c r="E10" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="26" t="n">
+      <c r="F10" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G10" s="2" t="n">
@@ -10537,16 +10529,16 @@
       <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="25" t="n">
+      <c r="C11" s="24" t="n">
         <v>45749</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="24" t="n">
         <v>45779</v>
       </c>
-      <c r="E11" s="26" t="n">
+      <c r="E11" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="26" t="n">
+      <c r="F11" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G11" s="2" t="n">
@@ -10569,16 +10561,16 @@
       <c r="B12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="26" t="n">
         <v>45658</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="26" t="n">
         <v>45828</v>
       </c>
-      <c r="E12" s="26" t="n">
+      <c r="E12" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="26" t="n">
+      <c r="F12" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G12" s="2" t="n">
@@ -10601,16 +10593,16 @@
       <c r="B13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="26" t="n">
         <v>45829</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="26" t="n">
         <v>45874</v>
       </c>
-      <c r="E13" s="26" t="n">
+      <c r="E13" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="26" t="n">
+      <c r="F13" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G13" s="2" t="n">
@@ -10633,16 +10625,16 @@
       <c r="B14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="26" t="n">
         <v>45658</v>
       </c>
-      <c r="D14" s="27" t="n">
+      <c r="D14" s="26" t="n">
         <v>45813</v>
       </c>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="26" t="n">
+      <c r="F14" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G14" s="2" t="n">
@@ -10665,16 +10657,16 @@
       <c r="B15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="27" t="n">
+      <c r="C15" s="26" t="n">
         <v>45814</v>
       </c>
-      <c r="D15" s="27" t="n">
+      <c r="D15" s="26" t="n">
         <v>45844</v>
       </c>
-      <c r="E15" s="26" t="n">
+      <c r="E15" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="26" t="n">
+      <c r="F15" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G15" s="2" t="n">
@@ -10697,16 +10689,16 @@
       <c r="B16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="27" t="n">
+      <c r="C16" s="26" t="n">
         <v>45658</v>
       </c>
-      <c r="D16" s="27" t="n">
+      <c r="D16" s="26" t="n">
         <v>45713</v>
       </c>
-      <c r="E16" s="26" t="n">
+      <c r="E16" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="26" t="n">
+      <c r="F16" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G16" s="2" t="n">
@@ -10729,16 +10721,16 @@
       <c r="B17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="27" t="n">
+      <c r="C17" s="26" t="n">
         <v>45714</v>
       </c>
-      <c r="D17" s="27" t="n">
+      <c r="D17" s="26" t="n">
         <v>45759</v>
       </c>
-      <c r="E17" s="26" t="n">
+      <c r="E17" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="26" t="n">
+      <c r="F17" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G17" s="2" t="n">
@@ -10761,16 +10753,16 @@
       <c r="B18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="27" t="n">
+      <c r="C18" s="26" t="n">
         <v>45658</v>
       </c>
-      <c r="D18" s="27" t="n">
+      <c r="D18" s="26" t="n">
         <v>45731</v>
       </c>
-      <c r="E18" s="26" t="n">
+      <c r="E18" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="26" t="n">
+      <c r="F18" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G18" s="2" t="n">
@@ -10794,16 +10786,16 @@
       <c r="B19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="27" t="n">
+      <c r="C19" s="26" t="n">
         <v>45749</v>
       </c>
-      <c r="D19" s="27" t="n">
+      <c r="D19" s="26" t="n">
         <v>45794</v>
       </c>
-      <c r="E19" s="26" t="n">
+      <c r="E19" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="F19" s="26" t="n">
+      <c r="F19" s="25" t="n">
         <v>0.5</v>
       </c>
       <c r="G19" s="2" t="n">
@@ -10827,16 +10819,16 @@
       <c r="B20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="27" t="n">
+      <c r="C20" s="26" t="n">
         <v>45658</v>
       </c>
-      <c r="D20" s="27" t="n">
+      <c r="D20" s="26" t="n">
         <v>45789</v>
       </c>
-      <c r="E20" s="26" t="n">
+      <c r="E20" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="26" t="n">
+      <c r="F20" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G20" s="2" t="n">
@@ -10860,16 +10852,16 @@
       <c r="B21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="27" t="n">
+      <c r="C21" s="26" t="n">
         <v>45790</v>
       </c>
-      <c r="D21" s="27" t="n">
+      <c r="D21" s="26" t="n">
         <v>45835</v>
       </c>
-      <c r="E21" s="26" t="n">
+      <c r="E21" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="26" t="n">
+      <c r="F21" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G21" s="2" t="n">
@@ -10893,16 +10885,16 @@
       <c r="B22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="27" t="n">
+      <c r="C22" s="26" t="n">
         <v>45717</v>
       </c>
-      <c r="D22" s="27" t="n">
+      <c r="D22" s="26" t="n">
         <v>45740</v>
       </c>
-      <c r="E22" s="26" t="n">
+      <c r="E22" s="25" t="n">
         <v>0.75</v>
       </c>
-      <c r="F22" s="26" t="n">
+      <c r="F22" s="25" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="n">
@@ -10926,16 +10918,16 @@
       <c r="B23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="27" t="n">
+      <c r="C23" s="26" t="n">
         <v>45741</v>
       </c>
-      <c r="D23" s="27" t="n">
+      <c r="D23" s="26" t="n">
         <v>45870</v>
       </c>
-      <c r="E23" s="26" t="n">
+      <c r="E23" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="26" t="n">
+      <c r="F23" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G23" s="2" t="n">
@@ -10959,16 +10951,16 @@
       <c r="B24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="27" t="n">
+      <c r="C24" s="26" t="n">
         <v>45871</v>
       </c>
-      <c r="D24" s="27" t="n">
+      <c r="D24" s="26" t="n">
         <v>45916</v>
       </c>
-      <c r="E24" s="26" t="n">
+      <c r="E24" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="26" t="n">
+      <c r="F24" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G24" s="2" t="n">
@@ -10992,16 +10984,16 @@
       <c r="B25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="27" t="n">
+      <c r="C25" s="26" t="n">
         <v>45737</v>
       </c>
-      <c r="D25" s="27" t="n">
+      <c r="D25" s="26" t="n">
         <v>45766</v>
       </c>
-      <c r="E25" s="26" t="n">
+      <c r="E25" s="25" t="n">
         <v>1.5</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="25" t="n">
         <v>1.75</v>
       </c>
       <c r="G25" s="2" t="n">
@@ -11025,16 +11017,16 @@
       <c r="B26" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="27" t="n">
+      <c r="C26" s="26" t="n">
         <v>45767</v>
       </c>
-      <c r="D26" s="27" t="n">
+      <c r="D26" s="26" t="n">
         <v>45962</v>
       </c>
-      <c r="E26" s="26" t="n">
+      <c r="E26" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G26" s="2" t="n">
@@ -11058,16 +11050,16 @@
       <c r="B27" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="27" t="n">
+      <c r="C27" s="26" t="n">
         <v>45963</v>
       </c>
-      <c r="D27" s="27" t="n">
+      <c r="D27" s="26" t="n">
         <v>45991</v>
       </c>
-      <c r="E27" s="26" t="n">
+      <c r="E27" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="F27" s="26" t="n">
+      <c r="F27" s="25" t="n">
         <v>0.5</v>
       </c>
       <c r="G27" s="2" t="n">
@@ -11091,16 +11083,16 @@
       <c r="B28" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="27" t="n">
+      <c r="C28" s="26" t="n">
         <v>45737</v>
       </c>
-      <c r="D28" s="27" t="n">
+      <c r="D28" s="26" t="n">
         <v>45766</v>
       </c>
-      <c r="E28" s="26" t="n">
+      <c r="E28" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="F28" s="26" t="n">
+      <c r="F28" s="25" t="n">
         <v>0.75</v>
       </c>
       <c r="G28" s="2" t="n">
@@ -11124,16 +11116,16 @@
       <c r="B29" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="27" t="n">
+      <c r="C29" s="26" t="n">
         <v>45767</v>
       </c>
-      <c r="D29" s="27" t="n">
+      <c r="D29" s="26" t="n">
         <v>45962</v>
       </c>
-      <c r="E29" s="26" t="n">
+      <c r="E29" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="26" t="n">
+      <c r="F29" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G29" s="2" t="n">
@@ -11157,16 +11149,16 @@
       <c r="B30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="27" t="n">
+      <c r="C30" s="26" t="n">
         <v>45963</v>
       </c>
-      <c r="D30" s="27" t="n">
+      <c r="D30" s="26" t="n">
         <v>45991</v>
       </c>
-      <c r="E30" s="26" t="n">
+      <c r="E30" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="F30" s="26" t="n">
+      <c r="F30" s="25" t="n">
         <v>0.5</v>
       </c>
       <c r="G30" s="2" t="n">
@@ -11190,16 +11182,16 @@
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="28" t="n">
+      <c r="C31" s="27" t="n">
         <v>45658</v>
       </c>
-      <c r="D31" s="28" t="n">
+      <c r="D31" s="27" t="n">
         <v>45748</v>
       </c>
-      <c r="E31" s="29" t="n">
+      <c r="E31" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F31" s="29" t="n">
+      <c r="F31" s="23" t="n">
         <v>0.25</v>
       </c>
       <c r="G31" s="2" t="n">
@@ -11223,16 +11215,16 @@
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="28" t="n">
+      <c r="C32" s="27" t="n">
         <v>45749</v>
       </c>
-      <c r="D32" s="28" t="n">
+      <c r="D32" s="27" t="n">
         <v>45779</v>
       </c>
-      <c r="E32" s="29" t="n">
+      <c r="E32" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="F32" s="29" t="n">
+      <c r="F32" s="23" t="n">
         <v>0.5</v>
       </c>
       <c r="G32" s="2" t="n">
@@ -11256,16 +11248,16 @@
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="28" t="n">
+      <c r="C33" s="27" t="n">
         <v>45658</v>
       </c>
-      <c r="D33" s="28" t="n">
+      <c r="D33" s="27" t="n">
         <v>45901</v>
       </c>
-      <c r="E33" s="29" t="n">
+      <c r="E33" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F33" s="29" t="n">
+      <c r="F33" s="23" t="n">
         <v>0.25</v>
       </c>
       <c r="G33" s="2" t="n">
@@ -11289,16 +11281,16 @@
       <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="28" t="n">
+      <c r="C34" s="27" t="n">
         <v>45902</v>
       </c>
-      <c r="D34" s="28" t="n">
+      <c r="D34" s="27" t="n">
         <v>45947</v>
       </c>
-      <c r="E34" s="29" t="n">
+      <c r="E34" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F34" s="29" t="n">
+      <c r="F34" s="23" t="n">
         <v>0.25</v>
       </c>
       <c r="G34" s="2" t="n">
@@ -11322,16 +11314,16 @@
       <c r="B35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="28" t="n">
+      <c r="C35" s="27" t="n">
         <v>45658</v>
       </c>
-      <c r="D35" s="28" t="n">
+      <c r="D35" s="27" t="n">
         <v>45931</v>
       </c>
-      <c r="E35" s="29" t="n">
+      <c r="E35" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="29" t="n">
+      <c r="F35" s="23" t="n">
         <v>0.25</v>
       </c>
       <c r="G35" s="2" t="n">
@@ -11355,16 +11347,16 @@
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="28" t="n">
+      <c r="C36" s="27" t="n">
         <v>45932</v>
       </c>
-      <c r="D36" s="28" t="n">
+      <c r="D36" s="27" t="n">
         <v>45962</v>
       </c>
-      <c r="E36" s="29" t="n">
+      <c r="E36" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="F36" s="29" t="n">
+      <c r="F36" s="23" t="n">
         <v>0.75</v>
       </c>
       <c r="G36" s="2" t="n">
@@ -11388,16 +11380,16 @@
       <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="28" t="n">
+      <c r="C37" s="27" t="n">
         <v>45698</v>
       </c>
-      <c r="D37" s="28" t="n">
+      <c r="D37" s="27" t="n">
         <v>45715</v>
       </c>
-      <c r="E37" s="29" t="n">
+      <c r="E37" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="F37" s="29" t="n">
+      <c r="F37" s="23" t="n">
         <v>0.75</v>
       </c>
       <c r="G37" s="2" t="n">
@@ -11421,16 +11413,16 @@
       <c r="B38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="28" t="n">
+      <c r="C38" s="27" t="n">
         <v>45716</v>
       </c>
-      <c r="D38" s="28" t="n">
+      <c r="D38" s="27" t="n">
         <v>45838</v>
       </c>
-      <c r="E38" s="29" t="n">
+      <c r="E38" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="29" t="n">
+      <c r="F38" s="23" t="n">
         <v>0.25</v>
       </c>
       <c r="G38" s="2" t="n">
@@ -11454,16 +11446,16 @@
       <c r="B39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="28" t="n">
+      <c r="C39" s="27" t="n">
         <v>45839</v>
       </c>
-      <c r="D39" s="28" t="n">
+      <c r="D39" s="27" t="n">
         <v>45884</v>
       </c>
-      <c r="E39" s="29" t="n">
+      <c r="E39" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F39" s="29" t="n">
+      <c r="F39" s="23" t="n">
         <v>0.25</v>
       </c>
       <c r="G39" s="2" t="n">
@@ -11487,16 +11479,16 @@
       <c r="B40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="28" t="n">
+      <c r="C40" s="27" t="n">
         <v>45803</v>
       </c>
-      <c r="D40" s="28" t="n">
+      <c r="D40" s="27" t="n">
         <v>45822</v>
       </c>
-      <c r="E40" s="29" t="n">
+      <c r="E40" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="F40" s="29" t="n">
+      <c r="F40" s="23" t="n">
         <v>0.75</v>
       </c>
       <c r="G40" s="2" t="n">
@@ -11520,16 +11512,16 @@
       <c r="B41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="28" t="n">
+      <c r="C41" s="27" t="n">
         <v>45823</v>
       </c>
-      <c r="D41" s="28" t="n">
+      <c r="D41" s="27" t="n">
         <v>46021</v>
       </c>
-      <c r="E41" s="29" t="n">
+      <c r="E41" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F41" s="29" t="n">
+      <c r="F41" s="23" t="n">
         <v>0.25</v>
       </c>
       <c r="G41" s="2" t="n">
@@ -11553,16 +11545,16 @@
       <c r="B42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="28" t="n">
+      <c r="C42" s="27" t="n">
         <v>46022</v>
       </c>
-      <c r="D42" s="28" t="n">
+      <c r="D42" s="27" t="n">
         <v>46053</v>
       </c>
-      <c r="E42" s="29" t="n">
+      <c r="E42" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F42" s="29" t="n">
+      <c r="F42" s="23" t="n">
         <v>0.25</v>
       </c>
       <c r="G42" s="2" t="n">
@@ -11586,16 +11578,16 @@
       <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="28" t="n">
+      <c r="C43" s="27" t="n">
         <v>45833</v>
       </c>
-      <c r="D43" s="28" t="n">
+      <c r="D43" s="27" t="n">
         <v>45847</v>
       </c>
-      <c r="E43" s="29" t="n">
+      <c r="E43" s="23" t="n">
         <v>0.75</v>
       </c>
-      <c r="F43" s="29" t="n">
+      <c r="F43" s="23" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="n">
@@ -11619,16 +11611,16 @@
       <c r="B44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="28" t="n">
+      <c r="C44" s="27" t="n">
         <v>45848</v>
       </c>
-      <c r="D44" s="28" t="n">
+      <c r="D44" s="27" t="n">
         <v>46021</v>
       </c>
-      <c r="E44" s="29" t="n">
+      <c r="E44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F44" s="29" t="n">
+      <c r="F44" s="23" t="n">
         <v>0.25</v>
       </c>
       <c r="G44" s="2" t="n">
@@ -11652,16 +11644,16 @@
       <c r="B45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="28" t="n">
+      <c r="C45" s="27" t="n">
         <v>46022</v>
       </c>
-      <c r="D45" s="28" t="n">
+      <c r="D45" s="27" t="n">
         <v>46053</v>
       </c>
-      <c r="E45" s="29" t="n">
+      <c r="E45" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="F45" s="29" t="n">
+      <c r="F45" s="23" t="n">
         <v>0.5</v>
       </c>
       <c r="G45" s="2" t="n">
@@ -11685,16 +11677,16 @@
       <c r="B46" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="27" t="n">
+      <c r="C46" s="26" t="n">
         <v>45684</v>
       </c>
-      <c r="D46" s="27" t="n">
+      <c r="D46" s="26" t="n">
         <v>45689</v>
       </c>
-      <c r="E46" s="26" t="n">
+      <c r="E46" s="25" t="n">
         <v>2.25</v>
       </c>
-      <c r="F46" s="26" t="n">
+      <c r="F46" s="25" t="n">
         <v>2.5</v>
       </c>
       <c r="G46" s="2" t="n">
@@ -11718,16 +11710,16 @@
       <c r="B47" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="27" t="n">
+      <c r="C47" s="26" t="n">
         <v>45690</v>
       </c>
-      <c r="D47" s="27" t="n">
+      <c r="D47" s="26" t="n">
         <v>45735</v>
       </c>
-      <c r="E47" s="26" t="n">
+      <c r="E47" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="F47" s="26" t="n">
+      <c r="F47" s="25" t="n">
         <v>0.75</v>
       </c>
       <c r="G47" s="2" t="n">
@@ -11751,16 +11743,16 @@
       <c r="B48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="27" t="n">
+      <c r="C48" s="26" t="n">
         <v>45736</v>
       </c>
-      <c r="D48" s="27" t="n">
+      <c r="D48" s="26" t="n">
         <v>45748</v>
       </c>
-      <c r="E48" s="26" t="n">
+      <c r="E48" s="25" t="n">
         <v>0.75</v>
       </c>
-      <c r="F48" s="26" t="n">
+      <c r="F48" s="25" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="2" t="n">
@@ -11784,16 +11776,16 @@
       <c r="B49" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="27" t="n">
+      <c r="C49" s="26" t="n">
         <v>45662</v>
       </c>
-      <c r="D49" s="27" t="n">
+      <c r="D49" s="26" t="n">
         <v>45672</v>
       </c>
-      <c r="E49" s="26" t="n">
+      <c r="E49" s="25" t="n">
         <v>3.75</v>
       </c>
-      <c r="F49" s="26" t="n">
+      <c r="F49" s="25" t="n">
         <v>4</v>
       </c>
       <c r="G49" s="2" t="n">
@@ -11817,16 +11809,16 @@
       <c r="B50" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="27" t="n">
+      <c r="C50" s="26" t="n">
         <v>45673</v>
       </c>
-      <c r="D50" s="27" t="n">
+      <c r="D50" s="26" t="n">
         <v>45853</v>
       </c>
-      <c r="E50" s="26" t="n">
+      <c r="E50" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="F50" s="26" t="n">
+      <c r="F50" s="25" t="n">
         <v>0.5</v>
       </c>
       <c r="G50" s="2" t="n">
@@ -11850,16 +11842,16 @@
       <c r="B51" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="27" t="n">
+      <c r="C51" s="26" t="n">
         <v>45854</v>
       </c>
-      <c r="D51" s="27" t="n">
+      <c r="D51" s="26" t="n">
         <v>45873</v>
       </c>
-      <c r="E51" s="26" t="n">
+      <c r="E51" s="25" t="n">
         <v>2.75</v>
       </c>
-      <c r="F51" s="26" t="n">
+      <c r="F51" s="25" t="n">
         <v>3</v>
       </c>
       <c r="G51" s="2" t="n">
@@ -11883,16 +11875,16 @@
       <c r="B52" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="27" t="n">
+      <c r="C52" s="26" t="n">
         <v>45658</v>
       </c>
-      <c r="D52" s="27" t="n">
+      <c r="D52" s="26" t="n">
         <v>45678</v>
       </c>
-      <c r="E52" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="26" t="n">
+      <c r="E52" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="25" t="n">
         <v>1.25</v>
       </c>
       <c r="G52" s="2" t="n">
@@ -11916,16 +11908,16 @@
       <c r="B53" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="27" t="n">
+      <c r="C53" s="26" t="n">
         <v>45679</v>
       </c>
-      <c r="D53" s="27" t="n">
+      <c r="D53" s="26" t="n">
         <v>45691</v>
       </c>
-      <c r="E53" s="26" t="n">
+      <c r="E53" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="F53" s="26" t="n">
+      <c r="F53" s="25" t="n">
         <v>0.75</v>
       </c>
       <c r="G53" s="2" t="n">
@@ -11949,16 +11941,16 @@
       <c r="B54" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="27" t="n">
+      <c r="C54" s="26" t="n">
         <v>45809</v>
       </c>
-      <c r="D54" s="27" t="n">
+      <c r="D54" s="26" t="n">
         <v>45834</v>
       </c>
-      <c r="E54" s="26" t="n">
+      <c r="E54" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F54" s="26" t="n">
+      <c r="F54" s="25" t="n">
         <v>2.25</v>
       </c>
       <c r="G54" s="2" t="n">
@@ -11982,16 +11974,16 @@
       <c r="B55" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="27" t="n">
+      <c r="C55" s="26" t="n">
         <v>45835</v>
       </c>
-      <c r="D55" s="27" t="n">
+      <c r="D55" s="26" t="n">
         <v>46335</v>
       </c>
-      <c r="E55" s="26" t="n">
+      <c r="E55" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="26" t="n">
+      <c r="F55" s="25" t="n">
         <v>0.25</v>
       </c>
       <c r="G55" s="2" t="n">
@@ -12015,16 +12007,16 @@
       <c r="B56" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="27" t="n">
+      <c r="C56" s="26" t="n">
         <v>46336</v>
       </c>
-      <c r="D56" s="27" t="n">
+      <c r="D56" s="26" t="n">
         <v>46391</v>
       </c>
-      <c r="E56" s="26" t="n">
+      <c r="E56" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="F56" s="26" t="n">
+      <c r="F56" s="25" t="n">
         <v>0.75</v>
       </c>
       <c r="G56" s="2" t="n">
@@ -12048,16 +12040,16 @@
       <c r="B57" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="27" t="n">
+      <c r="C57" s="26" t="n">
         <v>45778</v>
       </c>
-      <c r="D57" s="27" t="n">
+      <c r="D57" s="26" t="n">
         <v>45793</v>
       </c>
-      <c r="E57" s="26" t="n">
+      <c r="E57" s="25" t="n">
         <v>5.25</v>
       </c>
-      <c r="F57" s="26" t="n">
+      <c r="F57" s="25" t="n">
         <v>5.5</v>
       </c>
       <c r="G57" s="2" t="n">
@@ -12081,16 +12073,16 @@
       <c r="B58" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="27" t="n">
+      <c r="C58" s="26" t="n">
         <v>45794</v>
       </c>
-      <c r="D58" s="27" t="n">
+      <c r="D58" s="26" t="n">
         <v>46064</v>
       </c>
-      <c r="E58" s="26" t="n">
+      <c r="E58" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="F58" s="26" t="n">
+      <c r="F58" s="25" t="n">
         <v>0.5</v>
       </c>
       <c r="G58" s="2" t="n">
@@ -12114,16 +12106,16 @@
       <c r="B59" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="27" t="n">
+      <c r="C59" s="26" t="n">
         <v>46065</v>
       </c>
-      <c r="D59" s="27" t="n">
+      <c r="D59" s="26" t="n">
         <v>46083</v>
       </c>
-      <c r="E59" s="26" t="n">
+      <c r="E59" s="25" t="n">
         <v>1.5</v>
       </c>
-      <c r="F59" s="26" t="n">
+      <c r="F59" s="25" t="n">
         <v>1.75</v>
       </c>
       <c r="G59" s="2" t="n">
@@ -12147,16 +12139,16 @@
       <c r="B60" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="27" t="n">
+      <c r="C60" s="26" t="n">
         <v>45853</v>
       </c>
-      <c r="D60" s="27" t="n">
+      <c r="D60" s="26" t="n">
         <v>45878</v>
       </c>
-      <c r="E60" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" s="26" t="n">
+      <c r="E60" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="25" t="n">
         <v>1.25</v>
       </c>
       <c r="G60" s="2" t="n">
@@ -12180,16 +12172,16 @@
       <c r="B61" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="27" t="n">
+      <c r="C61" s="26" t="n">
         <v>45879</v>
       </c>
-      <c r="D61" s="27" t="n">
+      <c r="D61" s="26" t="n">
         <v>46029</v>
       </c>
-      <c r="E61" s="26" t="n">
+      <c r="E61" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="F61" s="26" t="n">
+      <c r="F61" s="25" t="n">
         <v>0.5</v>
       </c>
       <c r="G61" s="2" t="n">
@@ -12213,16 +12205,16 @@
       <c r="B62" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="27" t="n">
+      <c r="C62" s="26" t="n">
         <v>46030</v>
       </c>
-      <c r="D62" s="27" t="n">
+      <c r="D62" s="26" t="n">
         <v>46054</v>
       </c>
-      <c r="E62" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="26" t="n">
+      <c r="E62" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="25" t="n">
         <v>1.25</v>
       </c>
       <c r="G62" s="2" t="n">
@@ -12252,10 +12244,10 @@
       <c r="D63" s="6" t="n">
         <v>45733</v>
       </c>
-      <c r="E63" s="22" t="n">
+      <c r="E63" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F63" s="22" t="n">
+      <c r="F63" s="21" t="n">
         <v>0.25</v>
       </c>
       <c r="G63" s="2" t="n">
@@ -12285,10 +12277,10 @@
       <c r="D64" s="6" t="n">
         <v>45741</v>
       </c>
-      <c r="E64" s="22" t="n">
+      <c r="E64" s="21" t="n">
         <v>1.5</v>
       </c>
-      <c r="F64" s="22" t="n">
+      <c r="F64" s="21" t="n">
         <v>1.75</v>
       </c>
       <c r="G64" s="2" t="n">
@@ -12318,10 +12310,10 @@
       <c r="D65" s="6" t="n">
         <v>45738</v>
       </c>
-      <c r="E65" s="22" t="n">
+      <c r="E65" s="21" t="n">
         <v>0.25</v>
       </c>
-      <c r="F65" s="22" t="n">
+      <c r="F65" s="21" t="n">
         <v>0.5</v>
       </c>
       <c r="G65" s="2" t="n">
@@ -12351,10 +12343,10 @@
       <c r="D66" s="6" t="n">
         <v>45748</v>
       </c>
-      <c r="E66" s="22" t="n">
+      <c r="E66" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="F66" s="22" t="n">
+      <c r="F66" s="21" t="n">
         <v>2.25</v>
       </c>
       <c r="G66" s="2" t="n">
@@ -12384,10 +12376,10 @@
       <c r="D67" s="6" t="n">
         <v>45713</v>
       </c>
-      <c r="E67" s="22" t="n">
+      <c r="E67" s="21" t="n">
         <v>0.25</v>
       </c>
-      <c r="F67" s="22" t="n">
+      <c r="F67" s="21" t="n">
         <v>0.5</v>
       </c>
       <c r="G67" s="2" t="n">
@@ -12417,10 +12409,10 @@
       <c r="D68" s="6" t="n">
         <v>45719</v>
       </c>
-      <c r="E68" s="22" t="n">
+      <c r="E68" s="21" t="n">
         <v>2.5</v>
       </c>
-      <c r="F68" s="22" t="n">
+      <c r="F68" s="21" t="n">
         <v>2.75</v>
       </c>
       <c r="G68" s="2" t="n">
@@ -12444,16 +12436,16 @@
       <c r="B69" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="25" t="n">
+      <c r="C69" s="24" t="n">
         <v>45658</v>
       </c>
-      <c r="D69" s="25" t="n">
+      <c r="D69" s="24" t="n">
         <v>45713</v>
       </c>
-      <c r="E69" s="30" t="n">
+      <c r="E69" s="28" t="n">
         <v>0.25</v>
       </c>
-      <c r="F69" s="30" t="n">
+      <c r="F69" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="G69" s="2" t="n">
@@ -12477,16 +12469,16 @@
       <c r="B70" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="25" t="n">
+      <c r="C70" s="24" t="n">
         <v>45714</v>
       </c>
-      <c r="D70" s="25" t="n">
+      <c r="D70" s="24" t="n">
         <v>45719</v>
       </c>
-      <c r="E70" s="30" t="n">
+      <c r="E70" s="28" t="n">
         <v>2.5</v>
       </c>
-      <c r="F70" s="30" t="n">
+      <c r="F70" s="28" t="n">
         <v>2.75</v>
       </c>
       <c r="G70" s="2" t="n">
@@ -12510,16 +12502,16 @@
       <c r="B71" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="25" t="n">
+      <c r="C71" s="24" t="n">
         <v>45658</v>
       </c>
-      <c r="D71" s="25" t="n">
+      <c r="D71" s="24" t="n">
         <v>45743</v>
       </c>
-      <c r="E71" s="30" t="n">
+      <c r="E71" s="28" t="n">
         <v>0.25</v>
       </c>
-      <c r="F71" s="30" t="n">
+      <c r="F71" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="G71" s="2" t="n">
@@ -12543,16 +12535,16 @@
       <c r="B72" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="25" t="n">
+      <c r="C72" s="24" t="n">
         <v>45744</v>
       </c>
-      <c r="D72" s="25" t="n">
+      <c r="D72" s="24" t="n">
         <v>45754</v>
       </c>
-      <c r="E72" s="30" t="n">
+      <c r="E72" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="F72" s="30" t="n">
+      <c r="F72" s="28" t="n">
         <v>2.25</v>
       </c>
       <c r="G72" s="2" t="n">
@@ -12576,16 +12568,16 @@
       <c r="B73" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="25" t="n">
+      <c r="C73" s="24" t="n">
         <v>45658</v>
       </c>
-      <c r="D73" s="25" t="n">
+      <c r="D73" s="24" t="n">
         <v>45828</v>
       </c>
-      <c r="E73" s="30" t="n">
+      <c r="E73" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="F73" s="30" t="n">
+      <c r="F73" s="28" t="n">
         <v>0.25</v>
       </c>
       <c r="G73" s="2" t="n">
@@ -12609,16 +12601,16 @@
       <c r="B74" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C74" s="25" t="n">
+      <c r="C74" s="24" t="n">
         <v>45829</v>
       </c>
-      <c r="D74" s="25" t="n">
+      <c r="D74" s="24" t="n">
         <v>45838</v>
       </c>
-      <c r="E74" s="30" t="n">
+      <c r="E74" s="28" t="n">
         <v>1.5</v>
       </c>
-      <c r="F74" s="30" t="n">
+      <c r="F74" s="28" t="n">
         <v>1.75</v>
       </c>
       <c r="G74" s="2" t="n">
@@ -12642,16 +12634,16 @@
       <c r="B75" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="25" t="n">
+      <c r="C75" s="24" t="n">
         <v>45658</v>
       </c>
-      <c r="D75" s="25" t="n">
+      <c r="D75" s="24" t="n">
         <v>45828</v>
       </c>
-      <c r="E75" s="30" t="n">
+      <c r="E75" s="28" t="n">
         <v>0.25</v>
       </c>
-      <c r="F75" s="30" t="n">
+      <c r="F75" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="G75" s="2" t="n">
@@ -12675,16 +12667,16 @@
       <c r="B76" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="25" t="n">
+      <c r="C76" s="24" t="n">
         <v>45829</v>
       </c>
-      <c r="D76" s="25" t="n">
+      <c r="D76" s="24" t="n">
         <v>45838</v>
       </c>
-      <c r="E76" s="30" t="n">
+      <c r="E76" s="28" t="n">
         <v>2.5</v>
       </c>
-      <c r="F76" s="30" t="n">
+      <c r="F76" s="28" t="n">
         <v>2.75</v>
       </c>
       <c r="G76" s="2" t="n">
@@ -12708,16 +12700,16 @@
       <c r="B77" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="25" t="n">
+      <c r="C77" s="24" t="n">
         <v>45823</v>
       </c>
-      <c r="D77" s="25" t="n">
+      <c r="D77" s="24" t="n">
         <v>45853</v>
       </c>
-      <c r="E77" s="30" t="n">
+      <c r="E77" s="28" t="n">
         <v>2.25</v>
       </c>
-      <c r="F77" s="30" t="n">
+      <c r="F77" s="28" t="n">
         <v>2.5</v>
       </c>
       <c r="G77" s="2" t="n">
@@ -12741,16 +12733,16 @@
       <c r="B78" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="25" t="n">
+      <c r="C78" s="24" t="n">
         <v>45854</v>
       </c>
-      <c r="D78" s="25" t="n">
+      <c r="D78" s="24" t="n">
         <v>45984</v>
       </c>
-      <c r="E78" s="30" t="n">
+      <c r="E78" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="F78" s="30" t="n">
+      <c r="F78" s="28" t="n">
         <v>0.25</v>
       </c>
       <c r="G78" s="2" t="n">
@@ -12774,16 +12766,16 @@
       <c r="B79" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="25" t="n">
+      <c r="C79" s="24" t="n">
         <v>45985</v>
       </c>
-      <c r="D79" s="25" t="n">
+      <c r="D79" s="24" t="n">
         <v>45992</v>
       </c>
-      <c r="E79" s="30" t="n">
+      <c r="E79" s="28" t="n">
         <v>1.5</v>
       </c>
-      <c r="F79" s="30" t="n">
+      <c r="F79" s="28" t="n">
         <v>1.75</v>
       </c>
       <c r="G79" s="2" t="n">
@@ -12813,10 +12805,10 @@
       <c r="D80" s="6" t="n">
         <v>45828</v>
       </c>
-      <c r="E80" s="22" t="n">
+      <c r="E80" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F80" s="22" t="n">
+      <c r="F80" s="21" t="n">
         <v>0.25</v>
       </c>
       <c r="G80" s="2" t="n">
@@ -12846,10 +12838,10 @@
       <c r="D81" s="6" t="n">
         <v>45839</v>
       </c>
-      <c r="E81" s="22" t="n">
+      <c r="E81" s="21" t="n">
         <v>1.25</v>
       </c>
-      <c r="F81" s="22" t="n">
+      <c r="F81" s="21" t="n">
         <v>1.5</v>
       </c>
       <c r="G81" s="2" t="n">
@@ -12879,10 +12871,10 @@
       <c r="D82" s="6" t="n">
         <v>45678</v>
       </c>
-      <c r="E82" s="22" t="n">
+      <c r="E82" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="F82" s="22" t="n">
+      <c r="F82" s="21" t="n">
         <v>0.75</v>
       </c>
       <c r="G82" s="2" t="n">
@@ -12912,10 +12904,10 @@
       <c r="D83" s="6" t="n">
         <v>45726</v>
       </c>
-      <c r="E83" s="22" t="n">
+      <c r="E83" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F83" s="22" t="n">
+      <c r="F83" s="21" t="n">
         <v>0.25</v>
       </c>
       <c r="G83" s="2" t="n">
@@ -12945,10 +12937,10 @@
       <c r="D84" s="6" t="n">
         <v>45738</v>
       </c>
-      <c r="E84" s="22" t="n">
+      <c r="E84" s="21" t="n">
         <v>0.75</v>
       </c>
-      <c r="F84" s="22" t="n">
+      <c r="F84" s="21" t="n">
         <v>1</v>
       </c>
       <c r="G84" s="2" t="n">
@@ -12978,10 +12970,10 @@
       <c r="D85" s="6" t="n">
         <v>45748</v>
       </c>
-      <c r="E85" s="22" t="n">
+      <c r="E85" s="21" t="n">
         <v>4.25</v>
       </c>
-      <c r="F85" s="22" t="n">
+      <c r="F85" s="21" t="n">
         <v>4.5</v>
       </c>
       <c r="G85" s="2" t="n">
@@ -13011,10 +13003,10 @@
       <c r="D86" s="6" t="n">
         <v>45703</v>
       </c>
-      <c r="E86" s="22" t="n">
+      <c r="E86" s="21" t="n">
         <v>0.25</v>
       </c>
-      <c r="F86" s="22" t="n">
+      <c r="F86" s="21" t="n">
         <v>0.5</v>
       </c>
       <c r="G86" s="2" t="n">
@@ -13044,10 +13036,10 @@
       <c r="D87" s="6" t="n">
         <v>45713</v>
       </c>
-      <c r="E87" s="22" t="n">
+      <c r="E87" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="F87" s="22" t="n">
+      <c r="F87" s="21" t="n">
         <v>0.75</v>
       </c>
       <c r="G87" s="2" t="n">
@@ -13077,10 +13069,10 @@
       <c r="D88" s="6" t="n">
         <v>45672</v>
       </c>
-      <c r="E88" s="22" t="n">
+      <c r="E88" s="21" t="n">
         <v>3.5</v>
       </c>
-      <c r="F88" s="22" t="n">
+      <c r="F88" s="21" t="n">
         <v>3.75</v>
       </c>
       <c r="G88" s="2" t="n">
@@ -13110,10 +13102,10 @@
       <c r="D89" s="6" t="n">
         <v>45793</v>
       </c>
-      <c r="E89" s="22" t="n">
+      <c r="E89" s="21" t="n">
         <v>0.25</v>
       </c>
-      <c r="F89" s="22" t="n">
+      <c r="F89" s="21" t="n">
         <v>0.5</v>
       </c>
       <c r="G89" s="2" t="n">
@@ -13142,10 +13134,10 @@
       <c r="D90" s="6" t="n">
         <v>45809</v>
       </c>
-      <c r="E90" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" s="22" t="n">
+      <c r="E90" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" s="21" t="n">
         <v>1.25</v>
       </c>
       <c r="G90" s="2" t="n">
@@ -13190,7 +13182,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -13215,10 +13207,10 @@
       <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13585,7 +13577,7 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -13605,70 +13597,70 @@
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -14044,7 +14036,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -14069,36 +14061,36 @@
       <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14439,7 +14431,7 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -14459,16 +14451,16 @@
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6"/>
@@ -14636,7 +14628,7 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -14663,13 +14655,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="31" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="31" t="n">
         <v>45672</v>
       </c>
       <c r="D2" s="2" t="b">
@@ -14678,13 +14670,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="31" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="31" t="n">
         <v>45701</v>
       </c>
       <c r="D3" s="2" t="b">
@@ -14693,13 +14685,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="35" t="n">
+      <c r="B4" s="33" t="n">
         <v>45702</v>
       </c>
-      <c r="C4" s="35" t="n">
+      <c r="C4" s="33" t="n">
         <v>45732</v>
       </c>
       <c r="D4" s="2" t="b">
@@ -14708,13 +14700,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35" t="n">
+      <c r="B5" s="33" t="n">
         <v>45733</v>
       </c>
-      <c r="C5" s="35" t="n">
+      <c r="C5" s="33" t="n">
         <v>45761</v>
       </c>
       <c r="D5" s="2" t="b">
@@ -14723,13 +14715,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="35" t="n">
+      <c r="B6" s="33" t="n">
         <v>45762</v>
       </c>
-      <c r="C6" s="35" t="n">
+      <c r="C6" s="33" t="n">
         <v>45795</v>
       </c>
       <c r="D6" s="2" t="b">
@@ -14738,13 +14730,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="35" t="n">
+      <c r="B7" s="33" t="n">
         <v>45796</v>
       </c>
-      <c r="C7" s="35" t="n">
+      <c r="C7" s="33" t="n">
         <v>45826</v>
       </c>
       <c r="D7" s="2" t="b">
@@ -14753,13 +14745,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>116</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>45827</v>
       </c>
-      <c r="C8" s="35" t="n">
+      <c r="C8" s="33" t="n">
         <v>45855</v>
       </c>
       <c r="D8" s="2" t="b">
@@ -14768,13 +14760,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="35" t="n">
+      <c r="B9" s="33" t="n">
         <v>45856</v>
       </c>
-      <c r="C9" s="35" t="n">
+      <c r="C9" s="33" t="n">
         <v>45886</v>
       </c>
       <c r="D9" s="2" t="b">
@@ -14783,7 +14775,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="32" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="6" t="n">
@@ -14798,7 +14790,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="32" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="6" t="n">
@@ -14813,7 +14805,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="32" t="s">
         <v>120</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -14828,7 +14820,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="32" t="s">
         <v>121</v>
       </c>
       <c r="B13" s="6" t="n">

--- a/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
+++ b/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -263,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="163">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -749,6 +750,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -1694,11 +1698,11 @@
       <c r="D14" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B14) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1716,11 +1720,11 @@
       <c r="D15" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B15) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1738,11 +1742,11 @@
       <c r="D16" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B16) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1760,11 +1764,11 @@
       <c r="D17" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B17) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1782,11 +1786,11 @@
       <c r="D18" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B18) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1804,11 +1808,11 @@
       <c r="D19" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A19) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B19) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1826,11 +1830,11 @@
       <c r="D20" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A20) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B20) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1848,11 +1852,11 @@
       <c r="D21" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A21) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B21) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1870,11 +1874,11 @@
       <c r="D22" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A22) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B22) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1892,11 +1896,11 @@
       <c r="D23" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A23) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B23) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1914,11 +1918,11 @@
       <c r="D24" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A24) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B24) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1936,11 +1940,11 @@
       <c r="D25" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A25) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B25) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1958,11 +1962,11 @@
       <c r="D26" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A26) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B26) &gt; 0</f>
         <v>1</v>
       </c>
@@ -1980,11 +1984,11 @@
       <c r="D27" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A27) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B27) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2002,11 +2006,11 @@
       <c r="D28" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A28) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B28) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2024,11 +2028,11 @@
       <c r="D29" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A29) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B29) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2046,11 +2050,11 @@
       <c r="D30" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A30) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B30) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2068,11 +2072,11 @@
       <c r="D31" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A31) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B31) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2090,11 +2094,11 @@
       <c r="D32" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A32) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B32) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2112,11 +2116,11 @@
       <c r="D33" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A33) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B33) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2134,11 +2138,11 @@
       <c r="D34" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A34) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B34) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2156,11 +2160,11 @@
       <c r="D35" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A35) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B35) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2178,11 +2182,11 @@
       <c r="D36" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A36) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B36) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2200,11 +2204,11 @@
       <c r="D37" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A37) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B37) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2222,11 +2226,11 @@
       <c r="D38" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A38) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B38) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2244,11 +2248,11 @@
       <c r="D39" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A39) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B39) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2266,11 +2270,11 @@
       <c r="D40" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A40) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B40) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2288,11 +2292,11 @@
       <c r="D41" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A41) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B41) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2310,11 +2314,11 @@
       <c r="D42" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A42) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B42) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2332,11 +2336,11 @@
       <c r="D43" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A43) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B43) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2354,11 +2358,11 @@
       <c r="D44" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A44) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B44) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2376,11 +2380,11 @@
       <c r="D45" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A45) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B45) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2398,11 +2402,11 @@
       <c r="D46" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A46) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B46) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2420,11 +2424,11 @@
       <c r="D47" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A47) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B47) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2442,11 +2446,11 @@
       <c r="D48" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A48) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B48) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2464,11 +2468,11 @@
       <c r="D49" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A49) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B49) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2486,11 +2490,11 @@
       <c r="D50" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A50) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B50) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2508,11 +2512,11 @@
       <c r="D51" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A51) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B51) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2530,11 +2534,11 @@
       <c r="D52" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A52) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B52) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2552,11 +2556,11 @@
       <c r="D53" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A53) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B53) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2574,11 +2578,11 @@
       <c r="D54" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A54) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B54) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2596,11 +2600,11 @@
       <c r="D55" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A55) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B55) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2618,11 +2622,11 @@
       <c r="D56" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A56) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="F56" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B56) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2640,11 +2644,11 @@
       <c r="D57" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A57) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B57) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2662,11 +2666,11 @@
       <c r="D58" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A58) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F58" s="2" t="n">
+      <c r="F58" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B58) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2684,11 +2688,11 @@
       <c r="D59" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A59) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F59" s="2" t="n">
+      <c r="F59" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B59) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2706,11 +2710,11 @@
       <c r="D60" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A60) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B60) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2728,11 +2732,11 @@
       <c r="D61" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A61) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F61" s="2" t="n">
+      <c r="F61" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B61) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2750,11 +2754,11 @@
       <c r="D62" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A62) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B62) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2772,11 +2776,11 @@
       <c r="D63" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A63) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B63) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2794,11 +2798,11 @@
       <c r="D64" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A64) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B64) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2816,11 +2820,11 @@
       <c r="D65" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A65) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B65) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2838,11 +2842,11 @@
       <c r="D66" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A66) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B66) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2860,11 +2864,11 @@
       <c r="D67" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A67) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F67" s="2" t="n">
+      <c r="F67" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B67) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2882,11 +2886,11 @@
       <c r="D68" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A68) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B68) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2904,11 +2908,11 @@
       <c r="D69" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A69) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B69) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2926,11 +2930,11 @@
       <c r="D70" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A70) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B70) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2948,11 +2952,11 @@
       <c r="D71" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A71) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F71" s="2" t="n">
+      <c r="F71" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B71) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2970,11 +2974,11 @@
       <c r="D72" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E72" s="2" t="n">
+      <c r="E72" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A72) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F72" s="2" t="n">
+      <c r="F72" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B72) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2992,11 +2996,11 @@
       <c r="D73" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A73) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F73" s="2" t="n">
+      <c r="F73" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B73) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3014,11 +3018,11 @@
       <c r="D74" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A74) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F74" s="2" t="n">
+      <c r="F74" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B74) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3036,11 +3040,11 @@
       <c r="D75" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A75) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F75" s="2" t="n">
+      <c r="F75" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B75) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3058,11 +3062,11 @@
       <c r="D76" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A76) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F76" s="2" t="n">
+      <c r="F76" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B76) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3080,11 +3084,11 @@
       <c r="D77" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A77) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="F77" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B77) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3102,11 +3106,11 @@
       <c r="D78" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A78) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F78" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B78) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3124,11 +3128,11 @@
       <c r="D79" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A79) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F79" s="2" t="n">
+      <c r="F79" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B79) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3146,11 +3150,11 @@
       <c r="D80" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A80) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F80" s="2" t="n">
+      <c r="F80" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B80) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3168,11 +3172,11 @@
       <c r="D81" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A81) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F81" s="2" t="n">
+      <c r="F81" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B81) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3190,11 +3194,11 @@
       <c r="D82" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A82) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F82" s="2" t="n">
+      <c r="F82" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B82) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3212,11 +3216,11 @@
       <c r="D83" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A83) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F83" s="2" t="n">
+      <c r="F83" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B83) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3234,11 +3238,11 @@
       <c r="D84" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A84) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F84" s="2" t="n">
+      <c r="F84" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B84) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3256,11 +3260,11 @@
       <c r="D85" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A85) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F85" s="2" t="n">
+      <c r="F85" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B85) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4530,6 +4534,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -4634,7 +4697,7 @@
         <f aca="false">C2&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
         <v>1</v>
       </c>
@@ -4676,11 +4739,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$526, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2" t="b">
         <f aca="false">C3&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
         <v>1</v>
       </c>
@@ -4722,11 +4785,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$526, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2" t="b">
         <f aca="false">C4&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
         <v>1</v>
       </c>
@@ -4768,11 +4831,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$526, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2" t="b">
         <f aca="false">C5&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
         <v>1</v>
       </c>
@@ -4814,11 +4877,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$526, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2" t="b">
         <f aca="false">C6&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
         <v>1</v>
       </c>
@@ -4860,11 +4923,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$526, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2" t="b">
         <f aca="false">C7&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
         <v>1</v>
       </c>
@@ -4906,11 +4969,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$526, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2" t="b">
         <f aca="false">C8&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
         <v>1</v>
       </c>
@@ -4952,11 +5015,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$526, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2" t="b">
         <f aca="false">C9&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
         <v>1</v>
       </c>
@@ -4994,15 +5057,15 @@
         <f aca="false">H10 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2" t="b">
         <f aca="false">C10&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
         <v>1</v>
       </c>
@@ -5040,15 +5103,15 @@
         <f aca="false">H11 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="2" t="b">
         <f aca="false">C11&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
         <v>1</v>
       </c>
@@ -5086,15 +5149,15 @@
         <f aca="false">H12 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="2" t="b">
         <f aca="false">C12&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
         <v>1</v>
       </c>
@@ -5132,15 +5195,15 @@
         <f aca="false">H13 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="2" t="b">
         <f aca="false">C13&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
         <v>1</v>
       </c>
@@ -5178,15 +5241,15 @@
         <f aca="false">H14 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="2" t="b">
         <f aca="false">C14&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B14), ISNUMBER(C14), B14&lt;=C14)</f>
         <v>1</v>
       </c>
@@ -5224,15 +5287,15 @@
         <f aca="false">H15 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="2" t="b">
         <f aca="false">C15&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L15" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B15), ISNUMBER(C15), B15&lt;=C15)</f>
         <v>1</v>
       </c>
@@ -5270,15 +5333,15 @@
         <f aca="false">H16 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="2" t="b">
         <f aca="false">C16&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B16), ISNUMBER(C16), B16&lt;=C16)</f>
         <v>1</v>
       </c>
@@ -5316,15 +5379,15 @@
         <f aca="false">H17 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="2" t="b">
         <f aca="false">C17&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="L17" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B17), ISNUMBER(C17), B17&lt;=C17)</f>
         <v>1</v>
       </c>
@@ -5362,15 +5425,15 @@
         <f aca="false">H18 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="2" t="b">
         <f aca="false">C18&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B18), ISNUMBER(C18), B18&lt;=C18)</f>
         <v>1</v>
       </c>
@@ -5408,15 +5471,15 @@
         <f aca="false">H19 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A19) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="2" t="b">
         <f aca="false">C19&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B19), ISNUMBER(C19), B19&lt;=C19)</f>
         <v>1</v>
       </c>
@@ -5454,15 +5517,15 @@
         <f aca="false">H20 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A20) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="K20" s="2" t="b">
         <f aca="false">C20&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="L20" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B20), ISNUMBER(C20), B20&lt;=C20)</f>
         <v>1</v>
       </c>
@@ -5500,15 +5563,15 @@
         <f aca="false">H21 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A21) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K21" s="2" t="n">
+      <c r="K21" s="2" t="b">
         <f aca="false">C21&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L21" s="2" t="n">
+      <c r="L21" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B21), ISNUMBER(C21), B21&lt;=C21)</f>
         <v>1</v>
       </c>
@@ -5546,15 +5609,15 @@
         <f aca="false">H22 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A22) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="K22" s="2" t="b">
         <f aca="false">C22&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L22" s="2" t="n">
+      <c r="L22" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B22), ISNUMBER(C22), B22&lt;=C22)</f>
         <v>1</v>
       </c>
@@ -5592,15 +5655,15 @@
         <f aca="false">H23 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A23) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K23" s="2" t="n">
+      <c r="K23" s="2" t="b">
         <f aca="false">C23&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L23" s="2" t="n">
+      <c r="L23" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B23), ISNUMBER(C23), B23&lt;=C23)</f>
         <v>1</v>
       </c>
@@ -5638,15 +5701,15 @@
         <f aca="false">H24 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="J24" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A24) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K24" s="2" t="n">
+      <c r="K24" s="2" t="b">
         <f aca="false">C24&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L24" s="2" t="n">
+      <c r="L24" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B24), ISNUMBER(C24), B24&lt;=C24)</f>
         <v>1</v>
       </c>
@@ -5684,15 +5747,15 @@
         <f aca="false">H25 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A25) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="K25" s="2" t="b">
         <f aca="false">C25&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L25" s="2" t="n">
+      <c r="L25" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B25), ISNUMBER(C25), B25&lt;=C25)</f>
         <v>1</v>
       </c>
@@ -5730,15 +5793,15 @@
         <f aca="false">H26 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A26) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K26" s="2" t="b">
         <f aca="false">C26&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L26" s="2" t="n">
+      <c r="L26" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B26), ISNUMBER(C26), B26&lt;=C26)</f>
         <v>1</v>
       </c>
@@ -5776,15 +5839,15 @@
         <f aca="false">H27 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A27) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K27" s="2" t="b">
         <f aca="false">C27&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="L27" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B27), ISNUMBER(C27), B27&lt;=C27)</f>
         <v>1</v>
       </c>
@@ -5822,15 +5885,15 @@
         <f aca="false">H28 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J28" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A28) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="K28" s="2" t="b">
         <f aca="false">C28&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L28" s="2" t="n">
+      <c r="L28" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B28), ISNUMBER(C28), B28&lt;=C28)</f>
         <v>1</v>
       </c>
@@ -5868,15 +5931,15 @@
         <f aca="false">H29 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A29) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="K29" s="2" t="b">
         <f aca="false">C29&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L29" s="2" t="n">
+      <c r="L29" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B29), ISNUMBER(C29), B29&lt;=C29)</f>
         <v>1</v>
       </c>
@@ -5914,15 +5977,15 @@
         <f aca="false">H30 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="J30" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A30) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K30" s="2" t="n">
+      <c r="K30" s="2" t="b">
         <f aca="false">C30&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L30" s="2" t="n">
+      <c r="L30" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B30), ISNUMBER(C30), B30&lt;=C30)</f>
         <v>1</v>
       </c>
@@ -5960,15 +6023,15 @@
         <f aca="false">H31 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A31) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" s="2" t="b">
         <f aca="false">C31&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="L31" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B31), ISNUMBER(C31), B31&lt;=C31)</f>
         <v>1</v>
       </c>
@@ -6006,15 +6069,15 @@
         <f aca="false">H32 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J32" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A32) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="K32" s="2" t="b">
         <f aca="false">C32&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="L32" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B32), ISNUMBER(C32), B32&lt;=C32)</f>
         <v>1</v>
       </c>
@@ -6052,15 +6115,15 @@
         <f aca="false">H33 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A33) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="K33" s="2" t="b">
         <f aca="false">C33&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L33" s="2" t="n">
+      <c r="L33" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B33), ISNUMBER(C33), B33&lt;=C33)</f>
         <v>1</v>
       </c>
@@ -6098,15 +6161,15 @@
         <f aca="false">H34 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J34" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A34) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="K34" s="2" t="b">
         <f aca="false">C34&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="L34" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B34), ISNUMBER(C34), B34&lt;=C34)</f>
         <v>1</v>
       </c>
@@ -6144,15 +6207,15 @@
         <f aca="false">H35 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="J35" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A35) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="K35" s="2" t="b">
         <f aca="false">C35&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L35" s="2" t="n">
+      <c r="L35" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B35), ISNUMBER(C35), B35&lt;=C35)</f>
         <v>1</v>
       </c>
@@ -6190,15 +6253,15 @@
         <f aca="false">H36 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J36" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A36) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="K36" s="2" t="b">
         <f aca="false">C36&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L36" s="2" t="n">
+      <c r="L36" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B36), ISNUMBER(C36), B36&lt;=C36)</f>
         <v>1</v>
       </c>
@@ -6236,15 +6299,15 @@
         <f aca="false">H37 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="J37" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A37) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="K37" s="2" t="b">
         <f aca="false">C37&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L37" s="2" t="n">
+      <c r="L37" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B37), ISNUMBER(C37), B37&lt;=C37)</f>
         <v>1</v>
       </c>
@@ -6282,15 +6345,15 @@
         <f aca="false">H38 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A38) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="K38" s="2" t="b">
         <f aca="false">C38&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L38" s="2" t="n">
+      <c r="L38" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B38), ISNUMBER(C38), B38&lt;=C38)</f>
         <v>1</v>
       </c>
@@ -6328,15 +6391,15 @@
         <f aca="false">H39 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="J39" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A39) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="K39" s="2" t="b">
         <f aca="false">C39&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L39" s="2" t="n">
+      <c r="L39" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B39), ISNUMBER(C39), B39&lt;=C39)</f>
         <v>1</v>
       </c>
@@ -6374,15 +6437,15 @@
         <f aca="false">H40 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J40" s="2" t="n">
+      <c r="J40" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A40) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K40" s="2" t="n">
+      <c r="K40" s="2" t="b">
         <f aca="false">C40&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L40" s="2" t="n">
+      <c r="L40" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B40), ISNUMBER(C40), B40&lt;=C40)</f>
         <v>1</v>
       </c>
@@ -6420,15 +6483,15 @@
         <f aca="false">H41 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="J41" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A41) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K41" s="2" t="n">
+      <c r="K41" s="2" t="b">
         <f aca="false">C41&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L41" s="2" t="n">
+      <c r="L41" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B41), ISNUMBER(C41), B41&lt;=C41)</f>
         <v>1</v>
       </c>
@@ -6466,15 +6529,15 @@
         <f aca="false">H42 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J42" s="2" t="n">
+      <c r="J42" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A42) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K42" s="2" t="n">
+      <c r="K42" s="2" t="b">
         <f aca="false">C42&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L42" s="2" t="n">
+      <c r="L42" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B42), ISNUMBER(C42), B42&lt;=C42)</f>
         <v>1</v>
       </c>
@@ -6512,15 +6575,15 @@
         <f aca="false">H43 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J43" s="2" t="n">
+      <c r="J43" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A43) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K43" s="2" t="n">
+      <c r="K43" s="2" t="b">
         <f aca="false">C43&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L43" s="2" t="n">
+      <c r="L43" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B43), ISNUMBER(C43), B43&lt;=C43)</f>
         <v>1</v>
       </c>
@@ -6558,15 +6621,15 @@
         <f aca="false">H44 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J44" s="2" t="n">
+      <c r="J44" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A44) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K44" s="2" t="n">
+      <c r="K44" s="2" t="b">
         <f aca="false">C44&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L44" s="2" t="n">
+      <c r="L44" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B44), ISNUMBER(C44), B44&lt;=C44)</f>
         <v>1</v>
       </c>
@@ -6604,15 +6667,15 @@
         <f aca="false">H45 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J45" s="2" t="n">
+      <c r="J45" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A45) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K45" s="2" t="n">
+      <c r="K45" s="2" t="b">
         <f aca="false">C45&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L45" s="2" t="n">
+      <c r="L45" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B45), ISNUMBER(C45), B45&lt;=C45)</f>
         <v>1</v>
       </c>
@@ -6650,15 +6713,15 @@
         <f aca="false">H46 + 0.25</f>
         <v>2.5</v>
       </c>
-      <c r="J46" s="2" t="n">
+      <c r="J46" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A46) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K46" s="2" t="n">
+      <c r="K46" s="2" t="b">
         <f aca="false">C46&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L46" s="2" t="n">
+      <c r="L46" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B46), ISNUMBER(C46), B46&lt;=C46)</f>
         <v>1</v>
       </c>
@@ -6696,15 +6759,15 @@
         <f aca="false">H47 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J47" s="2" t="n">
+      <c r="J47" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A47) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K47" s="2" t="n">
+      <c r="K47" s="2" t="b">
         <f aca="false">C47&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L47" s="2" t="n">
+      <c r="L47" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B47), ISNUMBER(C47), B47&lt;=C47)</f>
         <v>1</v>
       </c>
@@ -6742,15 +6805,15 @@
         <f aca="false">H48 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J48" s="2" t="n">
+      <c r="J48" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A48) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K48" s="2" t="n">
+      <c r="K48" s="2" t="b">
         <f aca="false">C48&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L48" s="2" t="n">
+      <c r="L48" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B48), ISNUMBER(C48), B48&lt;=C48)</f>
         <v>1</v>
       </c>
@@ -6788,15 +6851,15 @@
         <f aca="false">H49 + 0.25</f>
         <v>4</v>
       </c>
-      <c r="J49" s="2" t="n">
+      <c r="J49" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A49) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K49" s="2" t="n">
+      <c r="K49" s="2" t="b">
         <f aca="false">C49&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L49" s="2" t="n">
+      <c r="L49" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B49), ISNUMBER(C49), B49&lt;=C49)</f>
         <v>1</v>
       </c>
@@ -6834,15 +6897,15 @@
         <f aca="false">H50 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J50" s="2" t="n">
+      <c r="J50" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A50) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K50" s="2" t="n">
+      <c r="K50" s="2" t="b">
         <f aca="false">C50&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L50" s="2" t="n">
+      <c r="L50" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B50), ISNUMBER(C50), B50&lt;=C50)</f>
         <v>1</v>
       </c>
@@ -6880,15 +6943,15 @@
         <f aca="false">H51 + 0.25</f>
         <v>3</v>
       </c>
-      <c r="J51" s="2" t="n">
+      <c r="J51" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A51) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="2" t="b">
         <f aca="false">C51&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L51" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B51), ISNUMBER(C51), B51&lt;=C51)</f>
         <v>1</v>
       </c>
@@ -6926,15 +6989,15 @@
         <f aca="false">H52 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J52" s="2" t="n">
+      <c r="J52" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A52) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K52" s="2" t="n">
+      <c r="K52" s="2" t="b">
         <f aca="false">C52&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L52" s="2" t="n">
+      <c r="L52" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B52), ISNUMBER(C52), B52&lt;=C52)</f>
         <v>1</v>
       </c>
@@ -6972,15 +7035,15 @@
         <f aca="false">H53 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J53" s="2" t="n">
+      <c r="J53" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A53) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K53" s="2" t="n">
+      <c r="K53" s="2" t="b">
         <f aca="false">C53&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L53" s="2" t="n">
+      <c r="L53" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B53), ISNUMBER(C53), B53&lt;=C53)</f>
         <v>1</v>
       </c>
@@ -7018,15 +7081,15 @@
         <f aca="false">H54 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J54" s="2" t="n">
+      <c r="J54" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A54) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K54" s="2" t="n">
+      <c r="K54" s="2" t="b">
         <f aca="false">C54&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L54" s="2" t="n">
+      <c r="L54" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B54), ISNUMBER(C54), B54&lt;=C54)</f>
         <v>1</v>
       </c>
@@ -7064,15 +7127,15 @@
         <f aca="false">H55 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J55" s="2" t="n">
+      <c r="J55" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A55) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K55" s="2" t="n">
+      <c r="K55" s="2" t="b">
         <f aca="false">C55&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L55" s="2" t="n">
+      <c r="L55" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B55), ISNUMBER(C55), B55&lt;=C55)</f>
         <v>1</v>
       </c>
@@ -7110,15 +7173,15 @@
         <f aca="false">H56 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J56" s="2" t="n">
+      <c r="J56" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A56) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K56" s="2" t="n">
+      <c r="K56" s="2" t="b">
         <f aca="false">C56&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L56" s="2" t="n">
+      <c r="L56" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B56), ISNUMBER(C56), B56&lt;=C56)</f>
         <v>1</v>
       </c>
@@ -7156,15 +7219,15 @@
         <f aca="false">H57 + 0.25</f>
         <v>5.5</v>
       </c>
-      <c r="J57" s="2" t="n">
+      <c r="J57" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A57) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K57" s="2" t="n">
+      <c r="K57" s="2" t="b">
         <f aca="false">C57&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L57" s="2" t="n">
+      <c r="L57" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B57), ISNUMBER(C57), B57&lt;=C57)</f>
         <v>1</v>
       </c>
@@ -7202,15 +7265,15 @@
         <f aca="false">H58 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J58" s="2" t="n">
+      <c r="J58" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A58) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K58" s="2" t="n">
+      <c r="K58" s="2" t="b">
         <f aca="false">C58&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L58" s="2" t="n">
+      <c r="L58" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B58), ISNUMBER(C58), B58&lt;=C58)</f>
         <v>1</v>
       </c>
@@ -7248,15 +7311,15 @@
         <f aca="false">H59 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J59" s="2" t="n">
+      <c r="J59" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A59) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K59" s="2" t="n">
+      <c r="K59" s="2" t="b">
         <f aca="false">C59&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L59" s="2" t="n">
+      <c r="L59" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B59), ISNUMBER(C59), B59&lt;=C59)</f>
         <v>1</v>
       </c>
@@ -7294,15 +7357,15 @@
         <f aca="false">H60 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J60" s="2" t="n">
+      <c r="J60" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A60) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K60" s="2" t="n">
+      <c r="K60" s="2" t="b">
         <f aca="false">C60&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L60" s="2" t="n">
+      <c r="L60" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B60), ISNUMBER(C60), B60&lt;=C60)</f>
         <v>1</v>
       </c>
@@ -7340,15 +7403,15 @@
         <f aca="false">H61 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J61" s="2" t="n">
+      <c r="J61" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A61) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K61" s="2" t="n">
+      <c r="K61" s="2" t="b">
         <f aca="false">C61&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L61" s="2" t="n">
+      <c r="L61" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B61), ISNUMBER(C61), B61&lt;=C61)</f>
         <v>1</v>
       </c>
@@ -7386,15 +7449,15 @@
         <f aca="false">H62 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J62" s="2" t="n">
+      <c r="J62" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A62) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K62" s="2" t="n">
+      <c r="K62" s="2" t="b">
         <f aca="false">C62&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L62" s="2" t="n">
+      <c r="L62" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B62), ISNUMBER(C62), B62&lt;=C62)</f>
         <v>1</v>
       </c>
@@ -7432,15 +7495,15 @@
         <f aca="false">H63 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J63" s="2" t="n">
+      <c r="J63" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A63) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K63" s="2" t="n">
+      <c r="K63" s="2" t="b">
         <f aca="false">C63&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L63" s="2" t="n">
+      <c r="L63" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B63), ISNUMBER(C63), B63&lt;=C63)</f>
         <v>1</v>
       </c>
@@ -7478,15 +7541,15 @@
         <f aca="false">H64 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J64" s="2" t="n">
+      <c r="J64" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A64) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K64" s="2" t="n">
+      <c r="K64" s="2" t="b">
         <f aca="false">C64&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L64" s="2" t="n">
+      <c r="L64" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B64), ISNUMBER(C64), B64&lt;=C64)</f>
         <v>1</v>
       </c>
@@ -7524,15 +7587,15 @@
         <f aca="false">H65 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J65" s="2" t="n">
+      <c r="J65" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A65) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K65" s="2" t="n">
+      <c r="K65" s="2" t="b">
         <f aca="false">C65&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L65" s="2" t="n">
+      <c r="L65" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B65), ISNUMBER(C65), B65&lt;=C65)</f>
         <v>1</v>
       </c>
@@ -7570,15 +7633,15 @@
         <f aca="false">H66 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J66" s="2" t="n">
+      <c r="J66" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A66) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K66" s="2" t="n">
+      <c r="K66" s="2" t="b">
         <f aca="false">C66&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L66" s="2" t="n">
+      <c r="L66" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B66), ISNUMBER(C66), B66&lt;=C66)</f>
         <v>1</v>
       </c>
@@ -7616,15 +7679,15 @@
         <f aca="false">H67 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J67" s="2" t="n">
+      <c r="J67" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A67) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K67" s="2" t="n">
+      <c r="K67" s="2" t="b">
         <f aca="false">C67&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L67" s="2" t="n">
+      <c r="L67" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B67), ISNUMBER(C67), B67&lt;=C67)</f>
         <v>1</v>
       </c>
@@ -7662,15 +7725,15 @@
         <f aca="false">H68 + 0.25</f>
         <v>2.75</v>
       </c>
-      <c r="J68" s="2" t="n">
+      <c r="J68" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A68) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K68" s="2" t="n">
+      <c r="K68" s="2" t="b">
         <f aca="false">C68&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L68" s="2" t="n">
+      <c r="L68" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B68), ISNUMBER(C68), B68&lt;=C68)</f>
         <v>1</v>
       </c>
@@ -7708,15 +7771,15 @@
         <f aca="false">H69 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J69" s="2" t="n">
+      <c r="J69" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A69) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K69" s="2" t="n">
+      <c r="K69" s="2" t="b">
         <f aca="false">C69&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L69" s="2" t="n">
+      <c r="L69" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B69), ISNUMBER(C69), B69&lt;=C69)</f>
         <v>1</v>
       </c>
@@ -7754,15 +7817,15 @@
         <f aca="false">H70 + 0.25</f>
         <v>2.75</v>
       </c>
-      <c r="J70" s="2" t="n">
+      <c r="J70" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A70) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K70" s="2" t="n">
+      <c r="K70" s="2" t="b">
         <f aca="false">C70&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L70" s="2" t="n">
+      <c r="L70" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B70), ISNUMBER(C70), B70&lt;=C70)</f>
         <v>1</v>
       </c>
@@ -7800,15 +7863,15 @@
         <f aca="false">H71 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J71" s="2" t="n">
+      <c r="J71" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A71) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K71" s="2" t="n">
+      <c r="K71" s="2" t="b">
         <f aca="false">C71&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L71" s="2" t="n">
+      <c r="L71" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B71), ISNUMBER(C71), B71&lt;=C71)</f>
         <v>1</v>
       </c>
@@ -7846,15 +7909,15 @@
         <f aca="false">H72 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J72" s="2" t="n">
+      <c r="J72" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A72) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K72" s="2" t="n">
+      <c r="K72" s="2" t="b">
         <f aca="false">C72&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L72" s="2" t="n">
+      <c r="L72" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B72), ISNUMBER(C72), B72&lt;=C72)</f>
         <v>1</v>
       </c>
@@ -7892,15 +7955,15 @@
         <f aca="false">H73 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J73" s="2" t="n">
+      <c r="J73" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A73) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K73" s="2" t="n">
+      <c r="K73" s="2" t="b">
         <f aca="false">C73&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L73" s="2" t="n">
+      <c r="L73" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B73), ISNUMBER(C73), B73&lt;=C73)</f>
         <v>1</v>
       </c>
@@ -7938,15 +8001,15 @@
         <f aca="false">H74 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J74" s="2" t="n">
+      <c r="J74" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A74) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K74" s="2" t="n">
+      <c r="K74" s="2" t="b">
         <f aca="false">C74&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L74" s="2" t="n">
+      <c r="L74" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B74), ISNUMBER(C74), B74&lt;=C74)</f>
         <v>1</v>
       </c>
@@ -7984,15 +8047,15 @@
         <f aca="false">H75 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J75" s="2" t="n">
+      <c r="J75" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A75) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K75" s="2" t="n">
+      <c r="K75" s="2" t="b">
         <f aca="false">C75&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L75" s="2" t="n">
+      <c r="L75" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B75), ISNUMBER(C75), B75&lt;=C75)</f>
         <v>1</v>
       </c>
@@ -8030,15 +8093,15 @@
         <f aca="false">H76 + 0.25</f>
         <v>2.75</v>
       </c>
-      <c r="J76" s="2" t="n">
+      <c r="J76" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A76) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K76" s="2" t="n">
+      <c r="K76" s="2" t="b">
         <f aca="false">C76&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L76" s="2" t="n">
+      <c r="L76" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B76), ISNUMBER(C76), B76&lt;=C76)</f>
         <v>1</v>
       </c>
@@ -8076,15 +8139,15 @@
         <f aca="false">H77 + 0.25</f>
         <v>2.5</v>
       </c>
-      <c r="J77" s="2" t="n">
+      <c r="J77" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A77) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K77" s="2" t="n">
+      <c r="K77" s="2" t="b">
         <f aca="false">C77&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L77" s="2" t="n">
+      <c r="L77" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B77), ISNUMBER(C77), B77&lt;=C77)</f>
         <v>1</v>
       </c>
@@ -8122,15 +8185,15 @@
         <f aca="false">H78 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J78" s="2" t="n">
+      <c r="J78" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A78) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K78" s="2" t="n">
+      <c r="K78" s="2" t="b">
         <f aca="false">C78&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L78" s="2" t="n">
+      <c r="L78" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B78), ISNUMBER(C78), B78&lt;=C78)</f>
         <v>1</v>
       </c>
@@ -8168,15 +8231,15 @@
         <f aca="false">H79 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J79" s="2" t="n">
+      <c r="J79" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A79) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K79" s="2" t="n">
+      <c r="K79" s="2" t="b">
         <f aca="false">C79&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L79" s="2" t="n">
+      <c r="L79" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B79), ISNUMBER(C79), B79&lt;=C79)</f>
         <v>1</v>
       </c>
@@ -8214,15 +8277,15 @@
         <f aca="false">H80 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J80" s="2" t="n">
+      <c r="J80" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A80) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K80" s="2" t="n">
+      <c r="K80" s="2" t="b">
         <f aca="false">C80&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L80" s="2" t="n">
+      <c r="L80" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B80), ISNUMBER(C80), B80&lt;=C80)</f>
         <v>1</v>
       </c>
@@ -8260,15 +8323,15 @@
         <f aca="false">H81 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="J81" s="2" t="n">
+      <c r="J81" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A81) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K81" s="2" t="n">
+      <c r="K81" s="2" t="b">
         <f aca="false">C81&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L81" s="2" t="n">
+      <c r="L81" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B81), ISNUMBER(C81), B81&lt;=C81)</f>
         <v>1</v>
       </c>
@@ -8306,15 +8369,15 @@
         <f aca="false">H82 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J82" s="2" t="n">
+      <c r="J82" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A82) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K82" s="2" t="n">
+      <c r="K82" s="2" t="b">
         <f aca="false">C82&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L82" s="2" t="n">
+      <c r="L82" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B82), ISNUMBER(C82), B82&lt;=C82)</f>
         <v>1</v>
       </c>
@@ -8352,15 +8415,15 @@
         <f aca="false">H83 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J83" s="2" t="n">
+      <c r="J83" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A83) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K83" s="2" t="n">
+      <c r="K83" s="2" t="b">
         <f aca="false">C83&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L83" s="2" t="n">
+      <c r="L83" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B83), ISNUMBER(C83), B83&lt;=C83)</f>
         <v>1</v>
       </c>
@@ -8398,15 +8461,15 @@
         <f aca="false">H84 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J84" s="2" t="n">
+      <c r="J84" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A84) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K84" s="2" t="n">
+      <c r="K84" s="2" t="b">
         <f aca="false">C84&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L84" s="2" t="n">
+      <c r="L84" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B84), ISNUMBER(C84), B84&lt;=C84)</f>
         <v>1</v>
       </c>
@@ -8444,15 +8507,15 @@
         <f aca="false">H85 + 0.25</f>
         <v>4.5</v>
       </c>
-      <c r="J85" s="2" t="n">
+      <c r="J85" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A85) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K85" s="2" t="n">
+      <c r="K85" s="2" t="b">
         <f aca="false">C85&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L85" s="2" t="n">
+      <c r="L85" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B85), ISNUMBER(C85), B85&lt;=C85)</f>
         <v>1</v>
       </c>
@@ -8490,15 +8553,15 @@
         <f aca="false">H86 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J86" s="2" t="n">
+      <c r="J86" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A86) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K86" s="2" t="n">
+      <c r="K86" s="2" t="b">
         <f aca="false">C86&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L86" s="2" t="n">
+      <c r="L86" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B86), ISNUMBER(C86), B86&lt;=C86)</f>
         <v>1</v>
       </c>
@@ -8536,15 +8599,15 @@
         <f aca="false">H87 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J87" s="2" t="n">
+      <c r="J87" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A87) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K87" s="2" t="n">
+      <c r="K87" s="2" t="b">
         <f aca="false">C87&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L87" s="2" t="n">
+      <c r="L87" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B87), ISNUMBER(C87), B87&lt;=C87)</f>
         <v>1</v>
       </c>
@@ -8582,15 +8645,15 @@
         <f aca="false">H88 + 0.25</f>
         <v>3.75</v>
       </c>
-      <c r="J88" s="2" t="n">
+      <c r="J88" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A88) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K88" s="2" t="n">
+      <c r="K88" s="2" t="b">
         <f aca="false">C88&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L88" s="2" t="n">
+      <c r="L88" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B88), ISNUMBER(C88), B88&lt;=C88)</f>
         <v>1</v>
       </c>
@@ -8628,15 +8691,15 @@
         <f aca="false">H89 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J89" s="2" t="n">
+      <c r="J89" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A89) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K89" s="2" t="n">
+      <c r="K89" s="2" t="b">
         <f aca="false">C89&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L89" s="2" t="n">
+      <c r="L89" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B89), ISNUMBER(C89), B89&lt;=C89)</f>
         <v>1</v>
       </c>
@@ -8674,15 +8737,15 @@
         <f aca="false">H90 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J90" s="2" t="n">
+      <c r="J90" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A90) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K90" s="2" t="n">
+      <c r="K90" s="2" t="b">
         <f aca="false">C90&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L90" s="2" t="n">
+      <c r="L90" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B90), ISNUMBER(C90), B90&lt;=C90)</f>
         <v>1</v>
       </c>
@@ -10509,15 +10572,15 @@
       <c r="F10" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B10)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C10), ISNUMBER(D10), C10&lt;=D10)</f>
         <v>1</v>
       </c>
@@ -10541,15 +10604,15 @@
       <c r="F11" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B11)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C11), ISNUMBER(D11), C11&lt;=D11)</f>
         <v>1</v>
       </c>
@@ -10573,15 +10636,15 @@
       <c r="F12" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B12)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C12), ISNUMBER(D12), C12&lt;=D12)</f>
         <v>1</v>
       </c>
@@ -10605,15 +10668,15 @@
       <c r="F13" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B13)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C13), ISNUMBER(D13), C13&lt;=D13)</f>
         <v>1</v>
       </c>
@@ -10637,15 +10700,15 @@
       <c r="F14" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B14)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C14), ISNUMBER(D14), C14&lt;=D14)</f>
         <v>1</v>
       </c>
@@ -10669,15 +10732,15 @@
       <c r="F15" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B15)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C15), ISNUMBER(D15), C15&lt;=D15)</f>
         <v>1</v>
       </c>
@@ -10701,15 +10764,15 @@
       <c r="F16" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B16)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C16), ISNUMBER(D16), C16&lt;=D16)</f>
         <v>1</v>
       </c>
@@ -10733,15 +10796,15 @@
       <c r="F17" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B17)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C17), ISNUMBER(D17), C17&lt;=D17)</f>
         <v>1</v>
       </c>
@@ -10765,15 +10828,15 @@
       <c r="F18" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B18)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C18), ISNUMBER(D18), C18&lt;=D18)</f>
         <v>1</v>
       </c>
@@ -10798,15 +10861,15 @@
       <c r="F19" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A19) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B19)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C19), ISNUMBER(D19), C19&lt;=D19)</f>
         <v>1</v>
       </c>
@@ -10831,15 +10894,15 @@
       <c r="F20" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A20) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B20)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C20), ISNUMBER(D20), C20&lt;=D20)</f>
         <v>1</v>
       </c>
@@ -10864,15 +10927,15 @@
       <c r="F21" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A21) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B21)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C21), ISNUMBER(D21), C21&lt;=D21)</f>
         <v>1</v>
       </c>
@@ -10897,15 +10960,15 @@
       <c r="F22" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A22) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B22)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C22), ISNUMBER(D22), C22&lt;=D22)</f>
         <v>1</v>
       </c>
@@ -10930,15 +10993,15 @@
       <c r="F23" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A23) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B23)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C23), ISNUMBER(D23), C23&lt;=D23)</f>
         <v>1</v>
       </c>
@@ -10963,15 +11026,15 @@
       <c r="F24" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A24) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B24)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C24), ISNUMBER(D24), C24&lt;=D24)</f>
         <v>1</v>
       </c>
@@ -10996,15 +11059,15 @@
       <c r="F25" s="25" t="n">
         <v>1.75</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A25) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B25)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C25), ISNUMBER(D25), C25&lt;=D25)</f>
         <v>1</v>
       </c>
@@ -11029,15 +11092,15 @@
       <c r="F26" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A26) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B26)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C26), ISNUMBER(D26), C26&lt;=D26)</f>
         <v>1</v>
       </c>
@@ -11062,15 +11125,15 @@
       <c r="F27" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A27) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B27)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C27), ISNUMBER(D27), C27&lt;=D27)</f>
         <v>1</v>
       </c>
@@ -11095,15 +11158,15 @@
       <c r="F28" s="25" t="n">
         <v>0.75</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A28) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B28)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C28), ISNUMBER(D28), C28&lt;=D28)</f>
         <v>1</v>
       </c>
@@ -11128,15 +11191,15 @@
       <c r="F29" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A29) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B29)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C29), ISNUMBER(D29), C29&lt;=D29)</f>
         <v>1</v>
       </c>
@@ -11161,15 +11224,15 @@
       <c r="F30" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A30) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B30)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C30), ISNUMBER(D30), C30&lt;=D30)</f>
         <v>1</v>
       </c>
@@ -11194,15 +11257,15 @@
       <c r="F31" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A31) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B31)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C31), ISNUMBER(D31), C31&lt;=D31)</f>
         <v>1</v>
       </c>
@@ -11227,15 +11290,15 @@
       <c r="F32" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A32) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B32)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C32), ISNUMBER(D32), C32&lt;=D32)</f>
         <v>1</v>
       </c>
@@ -11260,15 +11323,15 @@
       <c r="F33" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A33) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B33)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C33), ISNUMBER(D33), C33&lt;=D33)</f>
         <v>1</v>
       </c>
@@ -11293,15 +11356,15 @@
       <c r="F34" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A34) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B34)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C34), ISNUMBER(D34), C34&lt;=D34)</f>
         <v>1</v>
       </c>
@@ -11326,15 +11389,15 @@
       <c r="F35" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A35) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B35)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C35), ISNUMBER(D35), C35&lt;=D35)</f>
         <v>1</v>
       </c>
@@ -11359,15 +11422,15 @@
       <c r="F36" s="23" t="n">
         <v>0.75</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A36) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B36)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C36), ISNUMBER(D36), C36&lt;=D36)</f>
         <v>1</v>
       </c>
@@ -11392,15 +11455,15 @@
       <c r="F37" s="23" t="n">
         <v>0.75</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A37) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B37)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C37), ISNUMBER(D37), C37&lt;=D37)</f>
         <v>1</v>
       </c>
@@ -11425,15 +11488,15 @@
       <c r="F38" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A38) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B38)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C38), ISNUMBER(D38), C38&lt;=D38)</f>
         <v>1</v>
       </c>
@@ -11458,15 +11521,15 @@
       <c r="F39" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A39) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B39)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C39), ISNUMBER(D39), C39&lt;=D39)</f>
         <v>1</v>
       </c>
@@ -11491,15 +11554,15 @@
       <c r="F40" s="23" t="n">
         <v>0.75</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A40) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B40)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C40), ISNUMBER(D40), C40&lt;=D40)</f>
         <v>1</v>
       </c>
@@ -11524,15 +11587,15 @@
       <c r="F41" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A41) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B41)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C41), ISNUMBER(D41), C41&lt;=D41)</f>
         <v>1</v>
       </c>
@@ -11557,15 +11620,15 @@
       <c r="F42" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A42) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B42)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C42), ISNUMBER(D42), C42&lt;=D42)</f>
         <v>1</v>
       </c>
@@ -11590,15 +11653,15 @@
       <c r="F43" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A43) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B43)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C43), ISNUMBER(D43), C43&lt;=D43)</f>
         <v>1</v>
       </c>
@@ -11623,15 +11686,15 @@
       <c r="F44" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A44) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B44)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C44), ISNUMBER(D44), C44&lt;=D44)</f>
         <v>1</v>
       </c>
@@ -11656,15 +11719,15 @@
       <c r="F45" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A45) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B45)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C45), ISNUMBER(D45), C45&lt;=D45)</f>
         <v>1</v>
       </c>
@@ -11689,15 +11752,15 @@
       <c r="F46" s="25" t="n">
         <v>2.5</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A46) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B46)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C46), ISNUMBER(D46), C46&lt;=D46)</f>
         <v>1</v>
       </c>
@@ -11722,15 +11785,15 @@
       <c r="F47" s="25" t="n">
         <v>0.75</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A47) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B47)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C47), ISNUMBER(D47), C47&lt;=D47)</f>
         <v>1</v>
       </c>
@@ -11755,15 +11818,15 @@
       <c r="F48" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A48) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B48)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C48), ISNUMBER(D48), C48&lt;=D48)</f>
         <v>1</v>
       </c>
@@ -11788,15 +11851,15 @@
       <c r="F49" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A49) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B49)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="I49" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C49), ISNUMBER(D49), C49&lt;=D49)</f>
         <v>1</v>
       </c>
@@ -11821,15 +11884,15 @@
       <c r="F50" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A50) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B50)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C50), ISNUMBER(D50), C50&lt;=D50)</f>
         <v>1</v>
       </c>
@@ -11854,15 +11917,15 @@
       <c r="F51" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A51) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B51)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C51), ISNUMBER(D51), C51&lt;=D51)</f>
         <v>1</v>
       </c>
@@ -11887,15 +11950,15 @@
       <c r="F52" s="25" t="n">
         <v>1.25</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A52) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B52)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C52), ISNUMBER(D52), C52&lt;=D52)</f>
         <v>1</v>
       </c>
@@ -11920,15 +11983,15 @@
       <c r="F53" s="25" t="n">
         <v>0.75</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A53) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B53)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="I53" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C53), ISNUMBER(D53), C53&lt;=D53)</f>
         <v>1</v>
       </c>
@@ -11953,15 +12016,15 @@
       <c r="F54" s="25" t="n">
         <v>2.25</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A54) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B54)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C54), ISNUMBER(D54), C54&lt;=D54)</f>
         <v>1</v>
       </c>
@@ -11986,15 +12049,15 @@
       <c r="F55" s="25" t="n">
         <v>0.25</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="G55" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A55) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H55" s="2" t="n">
+      <c r="H55" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B55)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I55" s="2" t="n">
+      <c r="I55" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C55), ISNUMBER(D55), C55&lt;=D55)</f>
         <v>1</v>
       </c>
@@ -12019,15 +12082,15 @@
       <c r="F56" s="25" t="n">
         <v>0.75</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G56" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A56) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B56)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I56" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C56), ISNUMBER(D56), C56&lt;=D56)</f>
         <v>1</v>
       </c>
@@ -12052,15 +12115,15 @@
       <c r="F57" s="25" t="n">
         <v>5.5</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A57) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B57)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C57), ISNUMBER(D57), C57&lt;=D57)</f>
         <v>1</v>
       </c>
@@ -12085,15 +12148,15 @@
       <c r="F58" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="G58" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A58) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B58)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="I58" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C58), ISNUMBER(D58), C58&lt;=D58)</f>
         <v>1</v>
       </c>
@@ -12118,15 +12181,15 @@
       <c r="F59" s="25" t="n">
         <v>1.75</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="G59" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A59) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B59)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="I59" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C59), ISNUMBER(D59), C59&lt;=D59)</f>
         <v>1</v>
       </c>
@@ -12151,15 +12214,15 @@
       <c r="F60" s="25" t="n">
         <v>1.25</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A60) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B60)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C60), ISNUMBER(D60), C60&lt;=D60)</f>
         <v>1</v>
       </c>
@@ -12184,15 +12247,15 @@
       <c r="F61" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="G61" s="2" t="n">
+      <c r="G61" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A61) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="H61" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B61)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="I61" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C61), ISNUMBER(D61), C61&lt;=D61)</f>
         <v>1</v>
       </c>
@@ -12217,15 +12280,15 @@
       <c r="F62" s="25" t="n">
         <v>1.25</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A62) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H62" s="2" t="n">
+      <c r="H62" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B62)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I62" s="2" t="n">
+      <c r="I62" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C62), ISNUMBER(D62), C62&lt;=D62)</f>
         <v>1</v>
       </c>
@@ -12250,15 +12313,15 @@
       <c r="F63" s="21" t="n">
         <v>0.25</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A63) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B63)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C63), ISNUMBER(D63), C63&lt;=D63)</f>
         <v>1</v>
       </c>
@@ -12283,15 +12346,15 @@
       <c r="F64" s="21" t="n">
         <v>1.75</v>
       </c>
-      <c r="G64" s="2" t="n">
+      <c r="G64" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A64) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B64)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I64" s="2" t="n">
+      <c r="I64" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C64), ISNUMBER(D64), C64&lt;=D64)</f>
         <v>1</v>
       </c>
@@ -12316,15 +12379,15 @@
       <c r="F65" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="G65" s="2" t="n">
+      <c r="G65" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A65) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H65" s="2" t="n">
+      <c r="H65" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B65)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I65" s="2" t="n">
+      <c r="I65" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C65), ISNUMBER(D65), C65&lt;=D65)</f>
         <v>1</v>
       </c>
@@ -12349,15 +12412,15 @@
       <c r="F66" s="21" t="n">
         <v>2.25</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A66) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B66)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="I66" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C66), ISNUMBER(D66), C66&lt;=D66)</f>
         <v>1</v>
       </c>
@@ -12382,15 +12445,15 @@
       <c r="F67" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="G67" s="2" t="n">
+      <c r="G67" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A67) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H67" s="2" t="n">
+      <c r="H67" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B67)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I67" s="2" t="n">
+      <c r="I67" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C67), ISNUMBER(D67), C67&lt;=D67)</f>
         <v>1</v>
       </c>
@@ -12415,15 +12478,15 @@
       <c r="F68" s="21" t="n">
         <v>2.75</v>
       </c>
-      <c r="G68" s="2" t="n">
+      <c r="G68" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A68) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B68)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I68" s="2" t="n">
+      <c r="I68" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C68), ISNUMBER(D68), C68&lt;=D68)</f>
         <v>1</v>
       </c>
@@ -12448,15 +12511,15 @@
       <c r="F69" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="G69" s="2" t="n">
+      <c r="G69" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A69) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H69" s="2" t="n">
+      <c r="H69" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B69)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I69" s="2" t="n">
+      <c r="I69" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C69), ISNUMBER(D69), C69&lt;=D69)</f>
         <v>1</v>
       </c>
@@ -12481,15 +12544,15 @@
       <c r="F70" s="28" t="n">
         <v>2.75</v>
       </c>
-      <c r="G70" s="2" t="n">
+      <c r="G70" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A70) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H70" s="2" t="n">
+      <c r="H70" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B70)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I70" s="2" t="n">
+      <c r="I70" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C70), ISNUMBER(D70), C70&lt;=D70)</f>
         <v>1</v>
       </c>
@@ -12514,15 +12577,15 @@
       <c r="F71" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="G71" s="2" t="n">
+      <c r="G71" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A71) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H71" s="2" t="n">
+      <c r="H71" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B71)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I71" s="2" t="n">
+      <c r="I71" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C71), ISNUMBER(D71), C71&lt;=D71)</f>
         <v>1</v>
       </c>
@@ -12547,15 +12610,15 @@
       <c r="F72" s="28" t="n">
         <v>2.25</v>
       </c>
-      <c r="G72" s="2" t="n">
+      <c r="G72" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A72) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H72" s="2" t="n">
+      <c r="H72" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B72)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I72" s="2" t="n">
+      <c r="I72" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C72), ISNUMBER(D72), C72&lt;=D72)</f>
         <v>1</v>
       </c>
@@ -12580,15 +12643,15 @@
       <c r="F73" s="28" t="n">
         <v>0.25</v>
       </c>
-      <c r="G73" s="2" t="n">
+      <c r="G73" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A73) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H73" s="2" t="n">
+      <c r="H73" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B73)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I73" s="2" t="n">
+      <c r="I73" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C73), ISNUMBER(D73), C73&lt;=D73)</f>
         <v>1</v>
       </c>
@@ -12613,15 +12676,15 @@
       <c r="F74" s="28" t="n">
         <v>1.75</v>
       </c>
-      <c r="G74" s="2" t="n">
+      <c r="G74" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A74) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H74" s="2" t="n">
+      <c r="H74" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B74)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I74" s="2" t="n">
+      <c r="I74" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C74), ISNUMBER(D74), C74&lt;=D74)</f>
         <v>1</v>
       </c>
@@ -12646,15 +12709,15 @@
       <c r="F75" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="G75" s="2" t="n">
+      <c r="G75" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A75) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H75" s="2" t="n">
+      <c r="H75" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B75)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I75" s="2" t="n">
+      <c r="I75" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C75), ISNUMBER(D75), C75&lt;=D75)</f>
         <v>1</v>
       </c>
@@ -12679,15 +12742,15 @@
       <c r="F76" s="28" t="n">
         <v>2.75</v>
       </c>
-      <c r="G76" s="2" t="n">
+      <c r="G76" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A76) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H76" s="2" t="n">
+      <c r="H76" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B76)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I76" s="2" t="n">
+      <c r="I76" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C76), ISNUMBER(D76), C76&lt;=D76)</f>
         <v>1</v>
       </c>
@@ -12712,15 +12775,15 @@
       <c r="F77" s="28" t="n">
         <v>2.5</v>
       </c>
-      <c r="G77" s="2" t="n">
+      <c r="G77" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A77) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H77" s="2" t="n">
+      <c r="H77" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B77)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I77" s="2" t="n">
+      <c r="I77" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C77), ISNUMBER(D77), C77&lt;=D77)</f>
         <v>1</v>
       </c>
@@ -12745,15 +12808,15 @@
       <c r="F78" s="28" t="n">
         <v>0.25</v>
       </c>
-      <c r="G78" s="2" t="n">
+      <c r="G78" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A78) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H78" s="2" t="n">
+      <c r="H78" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B78)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I78" s="2" t="n">
+      <c r="I78" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C78), ISNUMBER(D78), C78&lt;=D78)</f>
         <v>1</v>
       </c>
@@ -12778,15 +12841,15 @@
       <c r="F79" s="28" t="n">
         <v>1.75</v>
       </c>
-      <c r="G79" s="2" t="n">
+      <c r="G79" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A79) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H79" s="2" t="n">
+      <c r="H79" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B79)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I79" s="2" t="n">
+      <c r="I79" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C79), ISNUMBER(D79), C79&lt;=D79)</f>
         <v>1</v>
       </c>
@@ -12811,15 +12874,15 @@
       <c r="F80" s="21" t="n">
         <v>0.25</v>
       </c>
-      <c r="G80" s="2" t="n">
+      <c r="G80" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A80) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H80" s="2" t="n">
+      <c r="H80" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B80)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I80" s="2" t="n">
+      <c r="I80" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C80), ISNUMBER(D80), C80&lt;=D80)</f>
         <v>1</v>
       </c>
@@ -12844,15 +12907,15 @@
       <c r="F81" s="21" t="n">
         <v>1.5</v>
       </c>
-      <c r="G81" s="2" t="n">
+      <c r="G81" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A81) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H81" s="2" t="n">
+      <c r="H81" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B81)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I81" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C81), ISNUMBER(D81), C81&lt;=D81)</f>
         <v>1</v>
       </c>
@@ -12877,15 +12940,15 @@
       <c r="F82" s="21" t="n">
         <v>0.75</v>
       </c>
-      <c r="G82" s="2" t="n">
+      <c r="G82" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A82) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H82" s="2" t="n">
+      <c r="H82" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B82)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I82" s="2" t="n">
+      <c r="I82" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C82), ISNUMBER(D82), C82&lt;=D82)</f>
         <v>1</v>
       </c>
@@ -12910,15 +12973,15 @@
       <c r="F83" s="21" t="n">
         <v>0.25</v>
       </c>
-      <c r="G83" s="2" t="n">
+      <c r="G83" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A83) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H83" s="2" t="n">
+      <c r="H83" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B83)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I83" s="2" t="n">
+      <c r="I83" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C83), ISNUMBER(D83), C83&lt;=D83)</f>
         <v>1</v>
       </c>
@@ -12943,15 +13006,15 @@
       <c r="F84" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="G84" s="2" t="n">
+      <c r="G84" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A84) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H84" s="2" t="n">
+      <c r="H84" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B84)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I84" s="2" t="n">
+      <c r="I84" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C84), ISNUMBER(D84), C84&lt;=D84)</f>
         <v>1</v>
       </c>
@@ -12976,15 +13039,15 @@
       <c r="F85" s="21" t="n">
         <v>4.5</v>
       </c>
-      <c r="G85" s="2" t="n">
+      <c r="G85" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A85) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H85" s="2" t="n">
+      <c r="H85" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B85)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I85" s="2" t="n">
+      <c r="I85" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C85), ISNUMBER(D85), C85&lt;=D85)</f>
         <v>1</v>
       </c>
@@ -13009,15 +13072,15 @@
       <c r="F86" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="G86" s="2" t="n">
+      <c r="G86" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A86) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H86" s="2" t="n">
+      <c r="H86" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B86)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I86" s="2" t="n">
+      <c r="I86" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C86), ISNUMBER(D86), C86&lt;=D86)</f>
         <v>1</v>
       </c>
@@ -13042,15 +13105,15 @@
       <c r="F87" s="21" t="n">
         <v>0.75</v>
       </c>
-      <c r="G87" s="2" t="n">
+      <c r="G87" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A87) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H87" s="2" t="n">
+      <c r="H87" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B87)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I87" s="2" t="n">
+      <c r="I87" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C87), ISNUMBER(D87), C87&lt;=D87)</f>
         <v>1</v>
       </c>
@@ -13075,15 +13138,15 @@
       <c r="F88" s="21" t="n">
         <v>3.75</v>
       </c>
-      <c r="G88" s="2" t="n">
+      <c r="G88" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A88) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H88" s="2" t="n">
+      <c r="H88" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B88)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I88" s="2" t="n">
+      <c r="I88" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C88), ISNUMBER(D88), C88&lt;=D88)</f>
         <v>1</v>
       </c>
@@ -13108,15 +13171,15 @@
       <c r="F89" s="21" t="n">
         <v>0.5</v>
       </c>
-      <c r="G89" s="2" t="n">
+      <c r="G89" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A89) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H89" s="2" t="n">
+      <c r="H89" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B89)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I89" s="2" t="n">
+      <c r="I89" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C89), ISNUMBER(D89), C89&lt;=D89)</f>
         <v>1</v>
       </c>
@@ -13140,15 +13203,15 @@
       <c r="F90" s="21" t="n">
         <v>1.25</v>
       </c>
-      <c r="G90" s="2" t="n">
+      <c r="G90" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A90) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H90" s="2" t="n">
+      <c r="H90" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$625,B90)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I90" s="2" t="n">
+      <c r="I90" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C90), ISNUMBER(D90), C90&lt;=D90)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
+++ b/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1960,7 +1960,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7669,7 +7669,7 @@
   </sheetPr>
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
+++ b/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="165">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -645,10 +645,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -1250,7 +1256,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="D1:D2 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1376,10 +1382,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1387,8 +1393,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="15.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1401,8 +1407,11 @@
       <c r="C1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="11" t="s">
         <v>127</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,9 +1422,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="35" t="n">
+        <v>129</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="35" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C600))</f>
         <v>46391</v>
       </c>
@@ -1439,7 +1451,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1454,13 +1466,13 @@
         <v>125</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>11</v>
@@ -1469,19 +1481,19 @@
         <v>12</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,14 +1511,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="26" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1516,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="37" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1539,7 +1551,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1550,16 +1562,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>11</v>
@@ -1568,19 +1580,19 @@
         <v>12</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,14 +1610,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="26" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1615,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="37" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1638,7 +1650,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1649,16 +1661,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>11</v>
@@ -1667,13 +1679,13 @@
         <v>12</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,7 +1703,7 @@
         <v>45657</v>
       </c>
       <c r="F2" s="26" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="7" t="n">
@@ -1702,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="37" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1728,7 +1740,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="D1:D2 H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1739,25 +1751,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,7 +1783,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.9</v>
@@ -1799,7 +1811,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1810,25 +1822,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,10 +1854,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>4</v>
@@ -1870,7 +1882,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1883,34 +1895,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,16 +1936,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.5</v>
@@ -1960,8 +1972,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1972,19 +1984,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,7 +2032,7 @@
   <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6199,7 +6211,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7670,7 +7682,7 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="D1:D2 D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11017,7 +11029,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11476,7 +11488,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11673,7 +11685,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12038,7 +12050,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14420,7 +14432,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="1" sqref="D1:D2 J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
+++ b/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="166">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -657,6 +658,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -666,6 +670,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -673,12 +683,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -917,7 +921,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1063,10 +1067,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="D1:D2 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1384,8 +1384,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1448,31 +1448,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>11</v>
@@ -1480,65 +1479,47 @@
       <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="26" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
       <c r="F2" s="26" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="37" t="b">
+        <f aca="false">E2+20</f>
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="37" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1548,87 +1529,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="26" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="7" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="37" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="37" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1647,79 +1583,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="26" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="37" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="37" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="1"/>
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1737,16 +1636,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="D1:D2 H16"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,43 +1653,16 @@
         <v>145</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1808,59 +1680,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1879,79 +1733,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="D2" s="7" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1970,46 +1786,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2032,7 +1903,7 @@
   <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6211,7 +6082,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7682,7 +7553,7 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="D1:D2 D22"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11029,7 +10900,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11488,7 +11359,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11685,7 +11556,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12050,7 +11921,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14432,7 +14303,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="1" sqref="D1:D2 J17"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
+++ b/ampl-data-input-excel/31-SA-multi/31-SA-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -646,7 +646,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -655,7 +655,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="D1:D2 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1384,8 +1384,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1451,7 +1451,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1683,7 +1683,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1736,7 +1736,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1861,8 +1861,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1903,7 +1903,7 @@
   <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6082,7 +6082,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7553,7 +7553,7 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="D1:D2 D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10900,7 +10900,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11359,7 +11359,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11556,7 +11556,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11921,7 +11921,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14303,7 +14303,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="1" sqref="D1:D2 J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
